--- a/script/MOS.xlsx
+++ b/script/MOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phe\Desktop\IG-modele-objets-sante\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06E04639-2A60-4762-85D8-E6910CEE2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3FB397-B4A8-48CF-8C29-CD611F4BAEF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16499715-9443-4163-B0D1-59A2C6C35666}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{16499715-9443-4163-B0D1-59A2C6C35666}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8371" uniqueCount="1866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8371" uniqueCount="1865">
   <si>
     <t>Partie</t>
   </si>
@@ -3258,9 +3258,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Date de rencontre de la personne prise en charge avec le médecin de santé au travail en visite de pré-reprise.</t>
-  </si>
-  <si>
-    <t>meatdonnee</t>
   </si>
   <si>
     <t>typeScolarisation</t>
@@ -6110,8 +6107,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O860"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="F389" sqref="F389"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6303,7 +6300,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -6314,7 +6311,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -6780,7 +6777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -7640,7 +7637,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="186" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
@@ -7673,12 +7670,12 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -7686,7 +7683,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>16</v>
@@ -8104,7 +8101,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="328.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>24</v>
       </c>
@@ -11835,7 +11832,7 @@
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>15</v>
       </c>
@@ -11872,7 +11869,7 @@
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>15</v>
       </c>
@@ -11909,7 +11906,7 @@
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>15</v>
       </c>
@@ -11946,7 +11943,7 @@
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>15</v>
       </c>
@@ -11983,7 +11980,7 @@
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>15</v>
       </c>
@@ -12020,7 +12017,7 @@
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>15</v>
       </c>
@@ -19498,7 +19495,7 @@
       <c r="N376" s="3"/>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
         <v>20</v>
       </c>
@@ -19515,7 +19512,7 @@
         <v>326</v>
       </c>
       <c r="F377" s="3" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>840</v>
@@ -19535,12 +19532,12 @@
       <c r="N377" s="3"/>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>841</v>
@@ -19572,12 +19569,12 @@
       <c r="N378" s="3"/>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>334</v>
@@ -19609,12 +19606,12 @@
       <c r="N379" s="3"/>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>844</v>
@@ -19646,12 +19643,12 @@
       <c r="N380" s="3"/>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>846</v>
@@ -19683,12 +19680,12 @@
       <c r="N381" s="3"/>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>848</v>
@@ -19720,12 +19717,12 @@
       <c r="N382" s="3"/>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>638</v>
@@ -19757,12 +19754,12 @@
       <c r="N383" s="3"/>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>852</v>
@@ -19794,12 +19791,12 @@
       <c r="N384" s="3"/>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>855</v>
@@ -19831,12 +19828,12 @@
       <c r="N385" s="3"/>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>858</v>
@@ -19868,12 +19865,12 @@
       <c r="N386" s="3"/>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>861</v>
@@ -19905,12 +19902,12 @@
       <c r="N387" s="3"/>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>864</v>
@@ -19942,12 +19939,12 @@
       <c r="N388" s="3"/>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" ht="143.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" ht="143.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>866</v>
@@ -19979,12 +19976,12 @@
       <c r="N389" s="3"/>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" ht="86.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>869</v>
@@ -20016,12 +20013,12 @@
       <c r="N390" s="3"/>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>871</v>
@@ -20053,12 +20050,12 @@
       <c r="N391" s="3"/>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>874</v>
@@ -20090,12 +20087,12 @@
       <c r="N392" s="3"/>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>876</v>
@@ -20127,12 +20124,12 @@
       <c r="N393" s="3"/>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>879</v>
@@ -20164,12 +20161,12 @@
       <c r="N394" s="3"/>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" ht="86.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>881</v>
@@ -20201,12 +20198,12 @@
       <c r="N395" s="3"/>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>883</v>
@@ -20238,12 +20235,12 @@
       <c r="N396" s="3"/>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>507</v>
@@ -20275,12 +20272,12 @@
       <c r="N397" s="3"/>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>886</v>
@@ -20312,12 +20309,12 @@
       <c r="N398" s="3"/>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>607</v>
@@ -20349,12 +20346,12 @@
       <c r="N399" s="3"/>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>605</v>
@@ -20386,12 +20383,12 @@
       <c r="N400" s="3"/>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>891</v>
@@ -20423,12 +20420,12 @@
       <c r="N401" s="3"/>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>893</v>
@@ -20460,12 +20457,12 @@
       <c r="N402" s="3"/>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>613</v>
@@ -20497,12 +20494,12 @@
       <c r="N403" s="3"/>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>896</v>
@@ -20514,7 +20511,7 @@
         <v>370</v>
       </c>
       <c r="F404" s="3" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="G404" s="3" t="s">
         <v>16</v>
@@ -20534,12 +20531,12 @@
       <c r="N404" s="3"/>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>334</v>
@@ -22129,7 +22126,7 @@
       <c r="N447" s="3"/>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" ht="328.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:15" ht="328.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
         <v>24</v>
       </c>
@@ -22172,7 +22169,7 @@
       </c>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" ht="114.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:15" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
         <v>24</v>
       </c>
@@ -22215,7 +22212,7 @@
       </c>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" ht="257.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:15" ht="257.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>24</v>
       </c>
@@ -22258,7 +22255,7 @@
       </c>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" ht="57.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:15" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>24</v>
       </c>
@@ -22301,7 +22298,7 @@
       </c>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:15" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>24</v>
       </c>
@@ -22344,7 +22341,7 @@
       </c>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>24</v>
       </c>
@@ -22387,7 +22384,7 @@
       </c>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>24</v>
       </c>
@@ -22430,7 +22427,7 @@
       </c>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>24</v>
       </c>
@@ -22473,7 +22470,7 @@
       </c>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" ht="100.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:15" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>24</v>
       </c>
@@ -22516,7 +22513,7 @@
       </c>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:15" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>24</v>
       </c>
@@ -23375,7 +23372,7 @@
         <v>153</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>1073</v>
+        <v>334</v>
       </c>
       <c r="D480" s="3" t="s">
         <v>325</v>
@@ -23412,7 +23409,7 @@
         <v>155</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>325</v>
@@ -23421,10 +23418,10 @@
         <v>326</v>
       </c>
       <c r="F481" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G481" s="5" t="s">
         <v>1075</v>
-      </c>
-      <c r="G481" s="5" t="s">
-        <v>1076</v>
       </c>
       <c r="H481" s="3" t="s">
         <v>16</v>
@@ -23449,7 +23446,7 @@
         <v>155</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>369</v>
@@ -23458,10 +23455,10 @@
         <v>326</v>
       </c>
       <c r="F482" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G482" s="3" t="s">
         <v>1078</v>
-      </c>
-      <c r="G482" s="3" t="s">
-        <v>1079</v>
       </c>
       <c r="H482" s="3" t="s">
         <v>16</v>
@@ -23523,7 +23520,7 @@
         <v>157</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>325</v>
@@ -23532,13 +23529,13 @@
         <v>387</v>
       </c>
       <c r="F484" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H484" s="3" t="s">
         <v>1081</v>
-      </c>
-      <c r="G484" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H484" s="3" t="s">
-        <v>1082</v>
       </c>
       <c r="I484" s="3" t="s">
         <v>16</v>
@@ -23551,7 +23548,7 @@
       <c r="M484" s="3"/>
       <c r="N484" s="3"/>
       <c r="O484" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="485" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23562,22 +23559,22 @@
         <v>157</v>
       </c>
       <c r="C485" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E485" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="D485" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E485" s="3" t="s">
+      <c r="F485" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="F485" s="3" t="s">
+      <c r="G485" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H485" s="3" t="s">
         <v>1086</v>
-      </c>
-      <c r="G485" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H485" s="3" t="s">
-        <v>1087</v>
       </c>
       <c r="I485" s="3" t="s">
         <v>16</v>
@@ -23599,22 +23596,22 @@
         <v>157</v>
       </c>
       <c r="C486" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F486" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="D486" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E486" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F486" s="3" t="s">
+      <c r="G486" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H486" s="3" t="s">
         <v>1089</v>
-      </c>
-      <c r="G486" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H486" s="3" t="s">
-        <v>1090</v>
       </c>
       <c r="I486" s="3" t="s">
         <v>16</v>
@@ -23636,7 +23633,7 @@
         <v>157</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D487" s="3" t="s">
         <v>325</v>
@@ -23645,13 +23642,13 @@
         <v>528</v>
       </c>
       <c r="F487" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H487" s="3" t="s">
         <v>1092</v>
-      </c>
-      <c r="G487" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H487" s="3" t="s">
-        <v>1093</v>
       </c>
       <c r="I487" s="3" t="s">
         <v>16</v>
@@ -23664,7 +23661,7 @@
       <c r="M487" s="3"/>
       <c r="N487" s="3"/>
       <c r="O487" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="488" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -23675,7 +23672,7 @@
         <v>157</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D488" s="3" t="s">
         <v>325</v>
@@ -23684,13 +23681,13 @@
         <v>528</v>
       </c>
       <c r="F488" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H488" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="G488" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H488" s="3" t="s">
-        <v>1097</v>
       </c>
       <c r="I488" s="3" t="s">
         <v>16</v>
@@ -23721,13 +23718,13 @@
         <v>342</v>
       </c>
       <c r="F489" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H489" s="3" t="s">
         <v>1098</v>
-      </c>
-      <c r="G489" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H489" s="3" t="s">
-        <v>1099</v>
       </c>
       <c r="I489" s="3" t="s">
         <v>16</v>
@@ -23749,22 +23746,22 @@
         <v>157</v>
       </c>
       <c r="C490" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F490" s="3" t="s">
         <v>1100</v>
       </c>
-      <c r="D490" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E490" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F490" s="3" t="s">
+      <c r="G490" s="5" t="s">
         <v>1101</v>
       </c>
-      <c r="G490" s="5" t="s">
+      <c r="H490" s="3" t="s">
         <v>1102</v>
-      </c>
-      <c r="H490" s="3" t="s">
-        <v>1103</v>
       </c>
       <c r="I490" s="3" t="s">
         <v>16</v>
@@ -23786,22 +23783,22 @@
         <v>157</v>
       </c>
       <c r="C491" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F491" s="3" t="s">
         <v>1104</v>
       </c>
-      <c r="D491" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E491" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F491" s="3" t="s">
+      <c r="G491" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="G491" s="5" t="s">
+      <c r="H491" s="3" t="s">
         <v>1106</v>
-      </c>
-      <c r="H491" s="3" t="s">
-        <v>1107</v>
       </c>
       <c r="I491" s="3" t="s">
         <v>16</v>
@@ -23823,7 +23820,7 @@
         <v>157</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D492" s="3" t="s">
         <v>325</v>
@@ -23832,7 +23829,7 @@
         <v>342</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G492" s="3" t="s">
         <v>16</v>
@@ -23860,16 +23857,16 @@
         <v>157</v>
       </c>
       <c r="C493" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F493" s="3" t="s">
         <v>1110</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E493" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F493" s="3" t="s">
-        <v>1111</v>
       </c>
       <c r="G493" s="3" t="s">
         <v>16</v>
@@ -23897,16 +23894,16 @@
         <v>157</v>
       </c>
       <c r="C494" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F494" s="3" t="s">
         <v>1112</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E494" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F494" s="3" t="s">
-        <v>1113</v>
       </c>
       <c r="G494" s="3" t="s">
         <v>16</v>
@@ -23934,16 +23931,16 @@
         <v>157</v>
       </c>
       <c r="C495" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F495" s="3" t="s">
         <v>1114</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E495" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F495" s="3" t="s">
-        <v>1115</v>
       </c>
       <c r="G495" s="3" t="s">
         <v>16</v>
@@ -23971,16 +23968,16 @@
         <v>157</v>
       </c>
       <c r="C496" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F496" s="3" t="s">
         <v>1116</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E496" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F496" s="3" t="s">
-        <v>1117</v>
       </c>
       <c r="G496" s="3" t="s">
         <v>16</v>
@@ -24008,16 +24005,16 @@
         <v>157</v>
       </c>
       <c r="C497" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F497" s="3" t="s">
         <v>1118</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E497" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F497" s="3" t="s">
-        <v>1119</v>
       </c>
       <c r="G497" s="3" t="s">
         <v>16</v>
@@ -24082,22 +24079,22 @@
         <v>161</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>369</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F499" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H499" s="3" t="s">
         <v>1121</v>
-      </c>
-      <c r="G499" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H499" s="3" t="s">
-        <v>1122</v>
       </c>
       <c r="I499" s="3" t="s">
         <v>16</v>
@@ -24119,7 +24116,7 @@
         <v>161</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>325</v>
@@ -24128,13 +24125,13 @@
         <v>901</v>
       </c>
       <c r="F500" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H500" s="3" t="s">
         <v>1124</v>
-      </c>
-      <c r="G500" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H500" s="3" t="s">
-        <v>1125</v>
       </c>
       <c r="I500" s="3" t="s">
         <v>16</v>
@@ -24147,7 +24144,7 @@
       <c r="M500" s="3"/>
       <c r="N500" s="3"/>
       <c r="O500" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="501" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24158,22 +24155,22 @@
         <v>161</v>
       </c>
       <c r="C501" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F501" s="3" t="s">
         <v>1127</v>
       </c>
-      <c r="D501" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F501" s="3" t="s">
+      <c r="G501" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H501" s="3" t="s">
         <v>1128</v>
-      </c>
-      <c r="G501" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H501" s="3" t="s">
-        <v>1129</v>
       </c>
       <c r="I501" s="3" t="s">
         <v>16</v>
@@ -24195,22 +24192,22 @@
         <v>161</v>
       </c>
       <c r="C502" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F502" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="D502" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E502" s="3" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F502" s="3" t="s">
+      <c r="G502" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H502" s="3" t="s">
         <v>1131</v>
-      </c>
-      <c r="G502" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H502" s="3" t="s">
-        <v>1132</v>
       </c>
       <c r="I502" s="3" t="s">
         <v>16</v>
@@ -24269,7 +24266,7 @@
         <v>163</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D504" s="3" t="s">
         <v>325</v>
@@ -24278,13 +24275,13 @@
         <v>901</v>
       </c>
       <c r="F504" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H504" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="G504" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H504" s="3" t="s">
-        <v>1135</v>
       </c>
       <c r="I504" s="3" t="s">
         <v>16</v>
@@ -24297,7 +24294,7 @@
       <c r="M504" s="3"/>
       <c r="N504" s="3"/>
       <c r="O504" s="3" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="505" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24308,7 +24305,7 @@
         <v>163</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>325</v>
@@ -24317,13 +24314,13 @@
         <v>901</v>
       </c>
       <c r="F505" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H505" s="3" t="s">
         <v>1138</v>
-      </c>
-      <c r="G505" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H505" s="3" t="s">
-        <v>1139</v>
       </c>
       <c r="I505" s="3" t="s">
         <v>16</v>
@@ -24336,7 +24333,7 @@
       <c r="M505" s="3"/>
       <c r="N505" s="3"/>
       <c r="O505" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="506" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -24347,22 +24344,22 @@
         <v>163</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F506" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H506" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="G506" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H506" s="3" t="s">
-        <v>1142</v>
       </c>
       <c r="I506" s="3" t="s">
         <v>16</v>
@@ -24384,7 +24381,7 @@
         <v>163</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>325</v>
@@ -24393,13 +24390,13 @@
         <v>796</v>
       </c>
       <c r="F507" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G507" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H507" s="3" t="s">
         <v>1144</v>
-      </c>
-      <c r="G507" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H507" s="3" t="s">
-        <v>1145</v>
       </c>
       <c r="I507" s="3" t="s">
         <v>16</v>
@@ -24421,7 +24418,7 @@
         <v>163</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>325</v>
@@ -24430,13 +24427,13 @@
         <v>342</v>
       </c>
       <c r="F508" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G508" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H508" s="3" t="s">
         <v>1147</v>
-      </c>
-      <c r="G508" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H508" s="3" t="s">
-        <v>1148</v>
       </c>
       <c r="I508" s="3" t="s">
         <v>16</v>
@@ -24495,7 +24492,7 @@
         <v>166</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>325</v>
@@ -24504,7 +24501,7 @@
         <v>517</v>
       </c>
       <c r="F510" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G510" s="3" t="s">
         <v>16</v>
@@ -24541,7 +24538,7 @@
         <v>397</v>
       </c>
       <c r="F511" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G511" s="3" t="s">
         <v>16</v>
@@ -24578,7 +24575,7 @@
         <v>402</v>
       </c>
       <c r="F512" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G512" s="3" t="s">
         <v>16</v>
@@ -24615,7 +24612,7 @@
         <v>406</v>
       </c>
       <c r="F513" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G513" s="3" t="s">
         <v>16</v>
@@ -24680,7 +24677,7 @@
         <v>168</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D515" s="3" t="s">
         <v>325</v>
@@ -24689,7 +24686,7 @@
         <v>326</v>
       </c>
       <c r="F515" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G515" s="3" t="s">
         <v>16</v>
@@ -24717,7 +24714,7 @@
         <v>168</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D516" s="3" t="s">
         <v>325</v>
@@ -24726,7 +24723,7 @@
         <v>397</v>
       </c>
       <c r="F516" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G516" s="3" t="s">
         <v>16</v>
@@ -24754,7 +24751,7 @@
         <v>168</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D517" s="3" t="s">
         <v>325</v>
@@ -24763,7 +24760,7 @@
         <v>402</v>
       </c>
       <c r="F517" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G517" s="3" t="s">
         <v>16</v>
@@ -24791,7 +24788,7 @@
         <v>168</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>369</v>
@@ -24800,7 +24797,7 @@
         <v>406</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G518" s="3" t="s">
         <v>16</v>
@@ -24865,7 +24862,7 @@
         <v>171</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>325</v>
@@ -24874,7 +24871,7 @@
         <v>326</v>
       </c>
       <c r="F520" s="3" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G520" s="3" t="s">
         <v>16</v>
@@ -24902,7 +24899,7 @@
         <v>171</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>325</v>
@@ -24911,7 +24908,7 @@
         <v>397</v>
       </c>
       <c r="F521" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G521" s="3" t="s">
         <v>16</v>
@@ -24939,7 +24936,7 @@
         <v>171</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>325</v>
@@ -24948,7 +24945,7 @@
         <v>402</v>
       </c>
       <c r="F522" s="3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G522" s="3" t="s">
         <v>16</v>
@@ -24976,7 +24973,7 @@
         <v>171</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>369</v>
@@ -24985,7 +24982,7 @@
         <v>406</v>
       </c>
       <c r="F523" s="3" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G523" s="3" t="s">
         <v>16</v>
@@ -25050,7 +25047,7 @@
         <v>173</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D525" s="3" t="s">
         <v>325</v>
@@ -25059,7 +25056,7 @@
         <v>387</v>
       </c>
       <c r="F525" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G525" s="3" t="s">
         <v>16</v>
@@ -25087,7 +25084,7 @@
         <v>173</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D526" s="3" t="s">
         <v>325</v>
@@ -25096,7 +25093,7 @@
         <v>330</v>
       </c>
       <c r="F526" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G526" s="3" t="s">
         <v>16</v>
@@ -25124,7 +25121,7 @@
         <v>173</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D527" s="3" t="s">
         <v>325</v>
@@ -25133,7 +25130,7 @@
         <v>517</v>
       </c>
       <c r="F527" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="G527" s="3" t="s">
         <v>16</v>
@@ -25207,7 +25204,7 @@
         <v>330</v>
       </c>
       <c r="F529" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="G529" s="3" t="s">
         <v>16</v>
@@ -25235,7 +25232,7 @@
         <v>175</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>325</v>
@@ -25244,10 +25241,10 @@
         <v>326</v>
       </c>
       <c r="F530" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G530" s="5" t="s">
         <v>1178</v>
-      </c>
-      <c r="G530" s="5" t="s">
-        <v>1179</v>
       </c>
       <c r="H530" s="3" t="s">
         <v>16</v>
@@ -25309,7 +25306,7 @@
         <v>177</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D532" s="3" t="s">
         <v>325</v>
@@ -25318,7 +25315,7 @@
         <v>387</v>
       </c>
       <c r="F532" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="G532" s="3" t="s">
         <v>16</v>
@@ -25346,7 +25343,7 @@
         <v>177</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1073</v>
+        <v>334</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>325</v>
@@ -25383,7 +25380,7 @@
         <v>179</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>325</v>
@@ -25392,7 +25389,7 @@
         <v>326</v>
       </c>
       <c r="F534" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="G534" s="3" t="s">
         <v>16</v>
@@ -25420,7 +25417,7 @@
         <v>179</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>1073</v>
+        <v>334</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>325</v>
@@ -25457,7 +25454,7 @@
         <v>181</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>325</v>
@@ -25466,7 +25463,7 @@
         <v>387</v>
       </c>
       <c r="F536" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="G536" s="3" t="s">
         <v>16</v>
@@ -25494,7 +25491,7 @@
         <v>181</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D537" s="3" t="s">
         <v>325</v>
@@ -25503,7 +25500,7 @@
         <v>326</v>
       </c>
       <c r="F537" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="G537" s="3" t="s">
         <v>16</v>
@@ -25531,7 +25528,7 @@
         <v>181</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D538" s="3" t="s">
         <v>325</v>
@@ -25540,7 +25537,7 @@
         <v>326</v>
       </c>
       <c r="F538" s="3" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G538" s="3" t="s">
         <v>16</v>
@@ -25568,7 +25565,7 @@
         <v>181</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D539" s="3" t="s">
         <v>325</v>
@@ -25577,7 +25574,7 @@
         <v>528</v>
       </c>
       <c r="F539" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G539" s="3" t="s">
         <v>16</v>
@@ -25605,7 +25602,7 @@
         <v>181</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>325</v>
@@ -25614,7 +25611,7 @@
         <v>342</v>
       </c>
       <c r="F540" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G540" s="3" t="s">
         <v>16</v>
@@ -25642,7 +25639,7 @@
         <v>181</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>325</v>
@@ -25651,7 +25648,7 @@
         <v>517</v>
       </c>
       <c r="F541" s="3" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="G541" s="3" t="s">
         <v>16</v>
@@ -25679,7 +25676,7 @@
         <v>181</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1073</v>
+        <v>334</v>
       </c>
       <c r="D542" s="3" t="s">
         <v>325</v>
@@ -25716,7 +25713,7 @@
         <v>27</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D543" s="3" t="s">
         <v>325</v>
@@ -25725,13 +25722,13 @@
         <v>387</v>
       </c>
       <c r="F543" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H543" s="3" t="s">
         <v>1197</v>
-      </c>
-      <c r="G543" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H543" s="3" t="s">
-        <v>1198</v>
       </c>
       <c r="I543" s="3" t="s">
         <v>16</v>
@@ -25753,7 +25750,7 @@
         <v>27</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>325</v>
@@ -25762,7 +25759,7 @@
         <v>342</v>
       </c>
       <c r="F544" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G544" s="3" t="s">
         <v>16</v>
@@ -25799,7 +25796,7 @@
         <v>330</v>
       </c>
       <c r="F545" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G545" s="3" t="s">
         <v>16</v>
@@ -25827,7 +25824,7 @@
         <v>27</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>325</v>
@@ -25836,13 +25833,13 @@
         <v>528</v>
       </c>
       <c r="F546" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H546" s="3" t="s">
         <v>1203</v>
-      </c>
-      <c r="G546" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H546" s="3" t="s">
-        <v>1204</v>
       </c>
       <c r="I546" s="3" t="s">
         <v>16</v>
@@ -25864,7 +25861,7 @@
         <v>27</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>325</v>
@@ -25873,13 +25870,13 @@
         <v>528</v>
       </c>
       <c r="F547" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H547" s="3" t="s">
         <v>1206</v>
-      </c>
-      <c r="G547" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H547" s="3" t="s">
-        <v>1207</v>
       </c>
       <c r="I547" s="3" t="s">
         <v>16</v>
@@ -25938,7 +25935,7 @@
         <v>185</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D549" s="3" t="s">
         <v>325</v>
@@ -25947,13 +25944,13 @@
         <v>387</v>
       </c>
       <c r="F549" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H549" s="3" t="s">
         <v>1209</v>
-      </c>
-      <c r="G549" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H549" s="3" t="s">
-        <v>1210</v>
       </c>
       <c r="I549" s="3" t="s">
         <v>16</v>
@@ -25975,7 +25972,7 @@
         <v>185</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D550" s="3" t="s">
         <v>325</v>
@@ -25984,13 +25981,13 @@
         <v>326</v>
       </c>
       <c r="F550" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H550" s="3" t="s">
         <v>1211</v>
-      </c>
-      <c r="G550" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H550" s="3" t="s">
-        <v>1212</v>
       </c>
       <c r="I550" s="3" t="s">
         <v>16</v>
@@ -26012,7 +26009,7 @@
         <v>185</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D551" s="3" t="s">
         <v>325</v>
@@ -26021,13 +26018,13 @@
         <v>528</v>
       </c>
       <c r="F551" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H551" s="3" t="s">
         <v>1214</v>
-      </c>
-      <c r="G551" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H551" s="3" t="s">
-        <v>1215</v>
       </c>
       <c r="I551" s="3" t="s">
         <v>16</v>
@@ -26058,13 +26055,13 @@
         <v>528</v>
       </c>
       <c r="F552" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H552" s="3" t="s">
         <v>1216</v>
-      </c>
-      <c r="G552" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H552" s="3" t="s">
-        <v>1217</v>
       </c>
       <c r="I552" s="3" t="s">
         <v>16</v>
@@ -26086,7 +26083,7 @@
         <v>185</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D553" s="3" t="s">
         <v>325</v>
@@ -26095,13 +26092,13 @@
         <v>342</v>
       </c>
       <c r="F553" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H553" s="3" t="s">
         <v>1219</v>
-      </c>
-      <c r="G553" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H553" s="3" t="s">
-        <v>1220</v>
       </c>
       <c r="I553" s="3" t="s">
         <v>16</v>
@@ -26160,7 +26157,7 @@
         <v>188</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D555" s="3" t="s">
         <v>325</v>
@@ -26169,13 +26166,13 @@
         <v>387</v>
       </c>
       <c r="F555" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H555" s="3" t="s">
         <v>1222</v>
-      </c>
-      <c r="G555" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H555" s="3" t="s">
-        <v>1223</v>
       </c>
       <c r="I555" s="3" t="s">
         <v>16</v>
@@ -26197,7 +26194,7 @@
         <v>188</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D556" s="3" t="s">
         <v>325</v>
@@ -26206,13 +26203,13 @@
         <v>326</v>
       </c>
       <c r="F556" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H556" s="3" t="s">
         <v>1225</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H556" s="3" t="s">
-        <v>1226</v>
       </c>
       <c r="I556" s="3" t="s">
         <v>16</v>
@@ -26234,7 +26231,7 @@
         <v>188</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D557" s="3" t="s">
         <v>325</v>
@@ -26243,13 +26240,13 @@
         <v>528</v>
       </c>
       <c r="F557" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H557" s="3" t="s">
         <v>1228</v>
-      </c>
-      <c r="G557" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H557" s="3" t="s">
-        <v>1229</v>
       </c>
       <c r="I557" s="3" t="s">
         <v>16</v>
@@ -26271,7 +26268,7 @@
         <v>188</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D558" s="3" t="s">
         <v>325</v>
@@ -26280,13 +26277,13 @@
         <v>528</v>
       </c>
       <c r="F558" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H558" s="3" t="s">
         <v>1231</v>
-      </c>
-      <c r="G558" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H558" s="3" t="s">
-        <v>1232</v>
       </c>
       <c r="I558" s="3" t="s">
         <v>16</v>
@@ -26308,7 +26305,7 @@
         <v>188</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>325</v>
@@ -26317,13 +26314,13 @@
         <v>528</v>
       </c>
       <c r="F559" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H559" s="3" t="s">
         <v>1234</v>
-      </c>
-      <c r="G559" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H559" s="3" t="s">
-        <v>1235</v>
       </c>
       <c r="I559" s="3" t="s">
         <v>16</v>
@@ -26345,7 +26342,7 @@
         <v>188</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D560" s="3" t="s">
         <v>325</v>
@@ -26354,7 +26351,7 @@
         <v>528</v>
       </c>
       <c r="F560" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G560" s="3" t="s">
         <v>16</v>
@@ -26382,7 +26379,7 @@
         <v>188</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D561" s="3" t="s">
         <v>325</v>
@@ -26391,7 +26388,7 @@
         <v>555</v>
       </c>
       <c r="F561" s="3" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G561" s="3" t="s">
         <v>16</v>
@@ -26419,7 +26416,7 @@
         <v>188</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D562" s="3" t="s">
         <v>325</v>
@@ -26428,13 +26425,13 @@
         <v>326</v>
       </c>
       <c r="F562" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H562" s="3" t="s">
         <v>1241</v>
-      </c>
-      <c r="G562" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H562" s="3" t="s">
-        <v>1242</v>
       </c>
       <c r="I562" s="3" t="s">
         <v>16</v>
@@ -26456,7 +26453,7 @@
         <v>188</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>325</v>
@@ -26465,7 +26462,7 @@
         <v>342</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G563" s="3" t="s">
         <v>16</v>
@@ -26493,7 +26490,7 @@
         <v>188</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>325</v>
@@ -26502,13 +26499,13 @@
         <v>326</v>
       </c>
       <c r="F564" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H564" s="3" t="s">
         <v>1246</v>
-      </c>
-      <c r="G564" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H564" s="3" t="s">
-        <v>1247</v>
       </c>
       <c r="I564" s="3" t="s">
         <v>16</v>
@@ -26530,7 +26527,7 @@
         <v>188</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>325</v>
@@ -26539,13 +26536,13 @@
         <v>342</v>
       </c>
       <c r="F565" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H565" s="3" t="s">
         <v>1249</v>
-      </c>
-      <c r="G565" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H565" s="3" t="s">
-        <v>1250</v>
       </c>
       <c r="I565" s="3" t="s">
         <v>16</v>
@@ -26567,7 +26564,7 @@
         <v>188</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D566" s="3" t="s">
         <v>325</v>
@@ -26576,7 +26573,7 @@
         <v>342</v>
       </c>
       <c r="F566" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G566" s="3" t="s">
         <v>16</v>
@@ -26613,13 +26610,13 @@
         <v>342</v>
       </c>
       <c r="F567" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H567" s="3" t="s">
         <v>1253</v>
-      </c>
-      <c r="G567" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H567" s="3" t="s">
-        <v>1254</v>
       </c>
       <c r="I567" s="3" t="s">
         <v>16</v>
@@ -26678,7 +26675,7 @@
         <v>191</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D569" s="3" t="s">
         <v>325</v>
@@ -26687,7 +26684,7 @@
         <v>511</v>
       </c>
       <c r="F569" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="G569" s="3" t="s">
         <v>16</v>
@@ -26715,7 +26712,7 @@
         <v>191</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D570" s="3" t="s">
         <v>325</v>
@@ -26724,7 +26721,7 @@
         <v>326</v>
       </c>
       <c r="F570" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="G570" s="3" t="s">
         <v>16</v>
@@ -26789,16 +26786,16 @@
         <v>193</v>
       </c>
       <c r="C572" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E572" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="D572" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E572" s="3" t="s">
+      <c r="F572" s="3" t="s">
         <v>1260</v>
-      </c>
-      <c r="F572" s="3" t="s">
-        <v>1261</v>
       </c>
       <c r="G572" s="3" t="s">
         <v>16</v>
@@ -26826,7 +26823,7 @@
         <v>193</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D573" s="3" t="s">
         <v>369</v>
@@ -26835,13 +26832,13 @@
         <v>387</v>
       </c>
       <c r="F573" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H573" s="3" t="s">
         <v>1263</v>
-      </c>
-      <c r="G573" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H573" s="3" t="s">
-        <v>1264</v>
       </c>
       <c r="I573" s="3" t="s">
         <v>16</v>
@@ -26863,7 +26860,7 @@
         <v>193</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>325</v>
@@ -26872,7 +26869,7 @@
         <v>326</v>
       </c>
       <c r="F574" s="3" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="G574" s="3" t="s">
         <v>16</v>
@@ -26900,7 +26897,7 @@
         <v>193</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>325</v>
@@ -26909,13 +26906,13 @@
         <v>387</v>
       </c>
       <c r="F575" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H575" s="3" t="s">
         <v>1268</v>
-      </c>
-      <c r="G575" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H575" s="3" t="s">
-        <v>1269</v>
       </c>
       <c r="I575" s="3" t="s">
         <v>16</v>
@@ -26937,7 +26934,7 @@
         <v>193</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>325</v>
@@ -26946,13 +26943,13 @@
         <v>342</v>
       </c>
       <c r="F576" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H576" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="G576" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H576" s="3" t="s">
-        <v>1272</v>
       </c>
       <c r="I576" s="3" t="s">
         <v>16</v>
@@ -26974,7 +26971,7 @@
         <v>193</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="D577" s="3" t="s">
         <v>325</v>
@@ -26983,13 +26980,13 @@
         <v>342</v>
       </c>
       <c r="F577" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H577" s="3" t="s">
         <v>1274</v>
-      </c>
-      <c r="G577" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H577" s="3" t="s">
-        <v>1275</v>
       </c>
       <c r="I577" s="3" t="s">
         <v>16</v>
@@ -27011,7 +27008,7 @@
         <v>193</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D578" s="3" t="s">
         <v>325</v>
@@ -27020,7 +27017,7 @@
         <v>326</v>
       </c>
       <c r="F578" s="3" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="G578" s="3" t="s">
         <v>16</v>
@@ -27048,7 +27045,7 @@
         <v>193</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D579" s="3" t="s">
         <v>325</v>
@@ -27057,13 +27054,13 @@
         <v>517</v>
       </c>
       <c r="F579" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H579" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="G579" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H579" s="3" t="s">
-        <v>1280</v>
       </c>
       <c r="I579" s="3" t="s">
         <v>16</v>
@@ -27085,7 +27082,7 @@
         <v>193</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="D580" s="3" t="s">
         <v>325</v>
@@ -27094,13 +27091,13 @@
         <v>705</v>
       </c>
       <c r="F580" s="3" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="G580" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H580" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I580" s="3" t="s">
         <v>16</v>
@@ -27122,7 +27119,7 @@
         <v>193</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D581" s="3" t="s">
         <v>325</v>
@@ -27131,13 +27128,13 @@
         <v>517</v>
       </c>
       <c r="F581" s="3" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="G581" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H581" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I581" s="3" t="s">
         <v>16</v>
@@ -27159,7 +27156,7 @@
         <v>193</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D582" s="3" t="s">
         <v>325</v>
@@ -27168,13 +27165,13 @@
         <v>517</v>
       </c>
       <c r="F582" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="G582" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H582" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I582" s="3" t="s">
         <v>16</v>
@@ -27196,7 +27193,7 @@
         <v>193</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D583" s="3" t="s">
         <v>325</v>
@@ -27205,13 +27202,13 @@
         <v>517</v>
       </c>
       <c r="F583" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H583" s="3" t="s">
         <v>1288</v>
-      </c>
-      <c r="G583" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H583" s="3" t="s">
-        <v>1289</v>
       </c>
       <c r="I583" s="3" t="s">
         <v>16</v>
@@ -27233,7 +27230,7 @@
         <v>193</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="D584" s="3" t="s">
         <v>325</v>
@@ -27242,13 +27239,13 @@
         <v>517</v>
       </c>
       <c r="F584" s="3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G584" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H584" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I584" s="3" t="s">
         <v>16</v>
@@ -27270,7 +27267,7 @@
         <v>193</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="D585" s="3" t="s">
         <v>325</v>
@@ -27279,13 +27276,13 @@
         <v>517</v>
       </c>
       <c r="F585" s="3" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="G585" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H585" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I585" s="3" t="s">
         <v>16</v>
@@ -27316,13 +27313,13 @@
         <v>517</v>
       </c>
       <c r="F586" s="3" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G586" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H586" s="3" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="I586" s="3" t="s">
         <v>16</v>
@@ -27344,7 +27341,7 @@
         <v>193</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D587" s="3" t="s">
         <v>325</v>
@@ -27353,7 +27350,7 @@
         <v>517</v>
       </c>
       <c r="F587" s="3" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G587" s="3" t="s">
         <v>16</v>
@@ -27381,7 +27378,7 @@
         <v>193</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D588" s="3" t="s">
         <v>325</v>
@@ -27390,13 +27387,13 @@
         <v>326</v>
       </c>
       <c r="F588" s="3" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="G588" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H588" s="3" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="I588" s="3" t="s">
         <v>16</v>
@@ -27455,7 +27452,7 @@
         <v>197</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D590" s="3" t="s">
         <v>325</v>
@@ -27464,13 +27461,13 @@
         <v>387</v>
       </c>
       <c r="F590" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H590" s="3" t="s">
         <v>1300</v>
-      </c>
-      <c r="G590" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H590" s="3" t="s">
-        <v>1301</v>
       </c>
       <c r="I590" s="3" t="s">
         <v>16</v>
@@ -27483,7 +27480,7 @@
       <c r="M590" s="3"/>
       <c r="N590" s="3"/>
       <c r="O590" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="591" spans="1:15" ht="86.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27494,7 +27491,7 @@
         <v>197</v>
       </c>
       <c r="C591" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D591" s="3" t="s">
         <v>325</v>
@@ -27503,13 +27500,13 @@
         <v>387</v>
       </c>
       <c r="F591" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H591" s="3" t="s">
         <v>1304</v>
-      </c>
-      <c r="G591" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H591" s="3" t="s">
-        <v>1305</v>
       </c>
       <c r="I591" s="3" t="s">
         <v>16</v>
@@ -27522,7 +27519,7 @@
       <c r="M591" s="3"/>
       <c r="N591" s="3"/>
       <c r="O591" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="592" spans="1:15" ht="72" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27533,7 +27530,7 @@
         <v>197</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D592" s="3" t="s">
         <v>325</v>
@@ -27542,13 +27539,13 @@
         <v>387</v>
       </c>
       <c r="F592" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H592" s="3" t="s">
         <v>1308</v>
-      </c>
-      <c r="G592" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H592" s="3" t="s">
-        <v>1309</v>
       </c>
       <c r="I592" s="3" t="s">
         <v>16</v>
@@ -27561,7 +27558,7 @@
       <c r="M592" s="3"/>
       <c r="N592" s="3"/>
       <c r="O592" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="593" spans="1:15" ht="86.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27572,7 +27569,7 @@
         <v>197</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D593" s="3" t="s">
         <v>325</v>
@@ -27581,13 +27578,13 @@
         <v>387</v>
       </c>
       <c r="F593" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G593" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H593" s="3" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I593" s="3" t="s">
         <v>16</v>
@@ -27600,7 +27597,7 @@
       <c r="M593" s="3"/>
       <c r="N593" s="3"/>
       <c r="O593" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="594" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27611,7 +27608,7 @@
         <v>197</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>325</v>
@@ -27620,13 +27617,13 @@
         <v>330</v>
       </c>
       <c r="F594" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H594" s="3" t="s">
         <v>1313</v>
-      </c>
-      <c r="G594" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H594" s="3" t="s">
-        <v>1314</v>
       </c>
       <c r="I594" s="3" t="s">
         <v>16</v>
@@ -27639,7 +27636,7 @@
       <c r="M594" s="3"/>
       <c r="N594" s="3"/>
       <c r="O594" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="595" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27650,7 +27647,7 @@
         <v>197</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D595" s="3" t="s">
         <v>325</v>
@@ -27659,13 +27656,13 @@
         <v>330</v>
       </c>
       <c r="F595" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H595" s="3" t="s">
         <v>1316</v>
-      </c>
-      <c r="G595" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H595" s="3" t="s">
-        <v>1317</v>
       </c>
       <c r="I595" s="3" t="s">
         <v>16</v>
@@ -27678,7 +27675,7 @@
       <c r="M595" s="3"/>
       <c r="N595" s="3"/>
       <c r="O595" s="3" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="596" spans="1:15" ht="186" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -27689,7 +27686,7 @@
         <v>197</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D596" s="3" t="s">
         <v>325</v>
@@ -27698,13 +27695,13 @@
         <v>555</v>
       </c>
       <c r="F596" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H596" s="3" t="s">
         <v>1319</v>
-      </c>
-      <c r="G596" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H596" s="3" t="s">
-        <v>1320</v>
       </c>
       <c r="I596" s="3" t="s">
         <v>16</v>
@@ -27726,7 +27723,7 @@
         <v>197</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D597" s="3" t="s">
         <v>325</v>
@@ -27735,13 +27732,13 @@
         <v>342</v>
       </c>
       <c r="F597" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H597" s="3" t="s">
         <v>1322</v>
-      </c>
-      <c r="G597" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H597" s="3" t="s">
-        <v>1323</v>
       </c>
       <c r="I597" s="3" t="s">
         <v>16</v>
@@ -27763,7 +27760,7 @@
         <v>197</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D598" s="3" t="s">
         <v>325</v>
@@ -27772,13 +27769,13 @@
         <v>326</v>
       </c>
       <c r="F598" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H598" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="G598" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H598" s="3" t="s">
-        <v>1326</v>
       </c>
       <c r="I598" s="3" t="s">
         <v>16</v>
@@ -27837,7 +27834,7 @@
         <v>199</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="D600" s="3" t="s">
         <v>325</v>
@@ -27846,7 +27843,7 @@
         <v>342</v>
       </c>
       <c r="F600" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G600" s="3" t="s">
         <v>16</v>
@@ -27874,7 +27871,7 @@
         <v>199</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="D601" s="3" t="s">
         <v>325</v>
@@ -27883,7 +27880,7 @@
         <v>342</v>
       </c>
       <c r="F601" s="3" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G601" s="3" t="s">
         <v>16</v>
@@ -27911,7 +27908,7 @@
         <v>199</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D602" s="3" t="s">
         <v>325</v>
@@ -27920,7 +27917,7 @@
         <v>342</v>
       </c>
       <c r="F602" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="G602" s="3" t="s">
         <v>16</v>
@@ -27948,7 +27945,7 @@
         <v>199</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="D603" s="3" t="s">
         <v>325</v>
@@ -27957,7 +27954,7 @@
         <v>342</v>
       </c>
       <c r="F603" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="G603" s="3" t="s">
         <v>16</v>
@@ -27985,7 +27982,7 @@
         <v>199</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D604" s="3" t="s">
         <v>325</v>
@@ -27994,7 +27991,7 @@
         <v>342</v>
       </c>
       <c r="F604" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="G604" s="3" t="s">
         <v>16</v>
@@ -28022,7 +28019,7 @@
         <v>199</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="D605" s="3" t="s">
         <v>325</v>
@@ -28031,7 +28028,7 @@
         <v>342</v>
       </c>
       <c r="F605" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="G605" s="3" t="s">
         <v>16</v>
@@ -28059,7 +28056,7 @@
         <v>199</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="D606" s="3" t="s">
         <v>325</v>
@@ -28068,10 +28065,10 @@
         <v>326</v>
       </c>
       <c r="F606" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G606" s="5" t="s">
         <v>1340</v>
-      </c>
-      <c r="G606" s="5" t="s">
-        <v>1341</v>
       </c>
       <c r="H606" s="3" t="s">
         <v>16</v>
@@ -28096,7 +28093,7 @@
         <v>199</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D607" s="3" t="s">
         <v>325</v>
@@ -28105,7 +28102,7 @@
         <v>342</v>
       </c>
       <c r="F607" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G607" s="3" t="s">
         <v>16</v>
@@ -28133,7 +28130,7 @@
         <v>199</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="D608" s="3" t="s">
         <v>325</v>
@@ -28142,7 +28139,7 @@
         <v>342</v>
       </c>
       <c r="F608" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="G608" s="3" t="s">
         <v>16</v>
@@ -28170,7 +28167,7 @@
         <v>199</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="D609" s="3" t="s">
         <v>325</v>
@@ -28179,7 +28176,7 @@
         <v>342</v>
       </c>
       <c r="F609" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="G609" s="3" t="s">
         <v>16</v>
@@ -28207,7 +28204,7 @@
         <v>199</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D610" s="3" t="s">
         <v>325</v>
@@ -28216,13 +28213,13 @@
         <v>326</v>
       </c>
       <c r="F610" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H610" s="3" t="s">
         <v>1349</v>
-      </c>
-      <c r="G610" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H610" s="3" t="s">
-        <v>1350</v>
       </c>
       <c r="I610" s="3" t="s">
         <v>16</v>
@@ -28244,7 +28241,7 @@
         <v>199</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="D611" s="3" t="s">
         <v>325</v>
@@ -28253,13 +28250,13 @@
         <v>342</v>
       </c>
       <c r="F611" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H611" s="3" t="s">
         <v>1352</v>
-      </c>
-      <c r="G611" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H611" s="3" t="s">
-        <v>1353</v>
       </c>
       <c r="I611" s="3" t="s">
         <v>16</v>
@@ -28281,7 +28278,7 @@
         <v>199</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="D612" s="3" t="s">
         <v>325</v>
@@ -28290,10 +28287,10 @@
         <v>326</v>
       </c>
       <c r="F612" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G612" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="G612" s="3" t="s">
-        <v>1356</v>
       </c>
       <c r="H612" s="3" t="s">
         <v>16</v>
@@ -28318,7 +28315,7 @@
         <v>199</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D613" s="3" t="s">
         <v>325</v>
@@ -28327,13 +28324,13 @@
         <v>342</v>
       </c>
       <c r="F613" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H613" s="3" t="s">
         <v>1358</v>
-      </c>
-      <c r="G613" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H613" s="3" t="s">
-        <v>1359</v>
       </c>
       <c r="I613" s="3" t="s">
         <v>16</v>
@@ -28355,7 +28352,7 @@
         <v>199</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="D614" s="3" t="s">
         <v>325</v>
@@ -28364,13 +28361,13 @@
         <v>342</v>
       </c>
       <c r="F614" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H614" s="3" t="s">
         <v>1361</v>
-      </c>
-      <c r="G614" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H614" s="3" t="s">
-        <v>1362</v>
       </c>
       <c r="I614" s="3" t="s">
         <v>16</v>
@@ -28392,7 +28389,7 @@
         <v>199</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D615" s="3" t="s">
         <v>369</v>
@@ -28401,13 +28398,13 @@
         <v>326</v>
       </c>
       <c r="F615" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G615" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H615" s="3" t="s">
         <v>1363</v>
-      </c>
-      <c r="G615" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H615" s="3" t="s">
-        <v>1364</v>
       </c>
       <c r="I615" s="3" t="s">
         <v>16</v>
@@ -28429,7 +28426,7 @@
         <v>199</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="D616" s="3" t="s">
         <v>325</v>
@@ -28438,13 +28435,13 @@
         <v>342</v>
       </c>
       <c r="F616" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G616" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H616" s="3" t="s">
         <v>1366</v>
-      </c>
-      <c r="G616" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H616" s="3" t="s">
-        <v>1367</v>
       </c>
       <c r="I616" s="3" t="s">
         <v>16</v>
@@ -28466,7 +28463,7 @@
         <v>199</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D617" s="3" t="s">
         <v>325</v>
@@ -28475,13 +28472,13 @@
         <v>342</v>
       </c>
       <c r="F617" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G617" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H617" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I617" s="3" t="s">
         <v>16</v>
@@ -28503,7 +28500,7 @@
         <v>199</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D618" s="3" t="s">
         <v>325</v>
@@ -28512,13 +28509,13 @@
         <v>342</v>
       </c>
       <c r="F618" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G618" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H618" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I618" s="3" t="s">
         <v>16</v>
@@ -28540,7 +28537,7 @@
         <v>199</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D619" s="3" t="s">
         <v>325</v>
@@ -28549,13 +28546,13 @@
         <v>342</v>
       </c>
       <c r="F619" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G619" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H619" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I619" s="3" t="s">
         <v>16</v>
@@ -28577,7 +28574,7 @@
         <v>199</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D620" s="3" t="s">
         <v>325</v>
@@ -28586,13 +28583,13 @@
         <v>342</v>
       </c>
       <c r="F620" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="G620" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H620" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I620" s="3" t="s">
         <v>16</v>
@@ -28614,7 +28611,7 @@
         <v>199</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D621" s="3" t="s">
         <v>325</v>
@@ -28623,13 +28620,13 @@
         <v>342</v>
       </c>
       <c r="F621" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="G621" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H621" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I621" s="3" t="s">
         <v>16</v>
@@ -28651,7 +28648,7 @@
         <v>199</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D622" s="3" t="s">
         <v>325</v>
@@ -28660,13 +28657,13 @@
         <v>342</v>
       </c>
       <c r="F622" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="G622" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H622" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I622" s="3" t="s">
         <v>16</v>
@@ -28725,7 +28722,7 @@
         <v>203</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D624" s="3" t="s">
         <v>325</v>
@@ -28734,10 +28731,10 @@
         <v>326</v>
       </c>
       <c r="F624" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G624" s="5" t="s">
         <v>1381</v>
-      </c>
-      <c r="G624" s="5" t="s">
-        <v>1382</v>
       </c>
       <c r="H624" s="3" t="s">
         <v>16</v>
@@ -28762,7 +28759,7 @@
         <v>203</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D625" s="3" t="s">
         <v>325</v>
@@ -28771,10 +28768,10 @@
         <v>326</v>
       </c>
       <c r="F625" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G625" s="5" t="s">
         <v>1384</v>
-      </c>
-      <c r="G625" s="5" t="s">
-        <v>1385</v>
       </c>
       <c r="H625" s="3" t="s">
         <v>16</v>
@@ -28799,7 +28796,7 @@
         <v>203</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D626" s="3" t="s">
         <v>325</v>
@@ -28808,7 +28805,7 @@
         <v>387</v>
       </c>
       <c r="F626" s="3" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G626" s="3" t="s">
         <v>16</v>
@@ -28836,7 +28833,7 @@
         <v>205</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D627" s="3" t="s">
         <v>325</v>
@@ -28845,7 +28842,7 @@
         <v>406</v>
       </c>
       <c r="F627" s="3" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G627" s="3" t="s">
         <v>16</v>
@@ -28873,7 +28870,7 @@
         <v>205</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D628" s="3" t="s">
         <v>325</v>
@@ -28882,10 +28879,10 @@
         <v>326</v>
       </c>
       <c r="F628" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G628" s="5" t="s">
         <v>1391</v>
-      </c>
-      <c r="G628" s="5" t="s">
-        <v>1392</v>
       </c>
       <c r="H628" s="3" t="s">
         <v>16</v>
@@ -28910,7 +28907,7 @@
         <v>205</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D629" s="3" t="s">
         <v>325</v>
@@ -28919,7 +28916,7 @@
         <v>342</v>
       </c>
       <c r="F629" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G629" s="3" t="s">
         <v>16</v>
@@ -28947,7 +28944,7 @@
         <v>205</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D630" s="3" t="s">
         <v>325</v>
@@ -28956,7 +28953,7 @@
         <v>342</v>
       </c>
       <c r="F630" s="3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G630" s="3" t="s">
         <v>16</v>
@@ -28984,7 +28981,7 @@
         <v>205</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D631" s="3" t="s">
         <v>325</v>
@@ -28993,7 +28990,7 @@
         <v>342</v>
       </c>
       <c r="F631" s="3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G631" s="3" t="s">
         <v>16</v>
@@ -29021,7 +29018,7 @@
         <v>205</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D632" s="3" t="s">
         <v>325</v>
@@ -29030,7 +29027,7 @@
         <v>406</v>
       </c>
       <c r="F632" s="3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G632" s="3" t="s">
         <v>16</v>
@@ -29058,7 +29055,7 @@
         <v>205</v>
       </c>
       <c r="C633" s="3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D633" s="3" t="s">
         <v>325</v>
@@ -29067,7 +29064,7 @@
         <v>517</v>
       </c>
       <c r="F633" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G633" s="3" t="s">
         <v>16</v>
@@ -29095,7 +29092,7 @@
         <v>205</v>
       </c>
       <c r="C634" s="3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D634" s="3" t="s">
         <v>325</v>
@@ -29104,7 +29101,7 @@
         <v>517</v>
       </c>
       <c r="F634" s="3" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G634" s="3" t="s">
         <v>16</v>
@@ -29169,7 +29166,7 @@
         <v>207</v>
       </c>
       <c r="C636" s="3" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D636" s="3" t="s">
         <v>325</v>
@@ -29178,7 +29175,7 @@
         <v>387</v>
       </c>
       <c r="F636" s="3" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G636" s="3" t="s">
         <v>16</v>
@@ -29243,7 +29240,7 @@
         <v>252</v>
       </c>
       <c r="C638" s="3" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D638" s="3" t="s">
         <v>325</v>
@@ -29252,7 +29249,7 @@
         <v>326</v>
       </c>
       <c r="F638" s="3" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G638" s="5" t="s">
         <v>914</v>
@@ -29280,7 +29277,7 @@
         <v>252</v>
       </c>
       <c r="C639" s="3" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D639" s="3" t="s">
         <v>325</v>
@@ -29289,10 +29286,10 @@
         <v>326</v>
       </c>
       <c r="F639" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G639" s="5" t="s">
         <v>1409</v>
-      </c>
-      <c r="G639" s="5" t="s">
-        <v>1410</v>
       </c>
       <c r="H639" s="3" t="s">
         <v>16</v>
@@ -29317,7 +29314,7 @@
         <v>252</v>
       </c>
       <c r="C640" s="3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D640" s="3" t="s">
         <v>325</v>
@@ -29326,10 +29323,10 @@
         <v>326</v>
       </c>
       <c r="F640" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G640" s="5" t="s">
         <v>1412</v>
-      </c>
-      <c r="G640" s="5" t="s">
-        <v>1413</v>
       </c>
       <c r="H640" s="3" t="s">
         <v>16</v>
@@ -29354,7 +29351,7 @@
         <v>252</v>
       </c>
       <c r="C641" s="3" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="D641" s="3" t="s">
         <v>325</v>
@@ -29363,7 +29360,7 @@
         <v>705</v>
       </c>
       <c r="F641" s="3" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G641" s="3" t="s">
         <v>16</v>
@@ -29391,7 +29388,7 @@
         <v>252</v>
       </c>
       <c r="C642" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D642" s="3" t="s">
         <v>325</v>
@@ -29400,7 +29397,7 @@
         <v>705</v>
       </c>
       <c r="F642" s="3" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G642" s="3" t="s">
         <v>16</v>
@@ -29428,7 +29425,7 @@
         <v>252</v>
       </c>
       <c r="C643" s="3" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D643" s="3" t="s">
         <v>325</v>
@@ -29437,7 +29434,7 @@
         <v>705</v>
       </c>
       <c r="F643" s="3" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G643" s="3" t="s">
         <v>16</v>
@@ -29465,7 +29462,7 @@
         <v>252</v>
       </c>
       <c r="C644" s="3" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="D644" s="3" t="s">
         <v>325</v>
@@ -29474,10 +29471,10 @@
         <v>326</v>
       </c>
       <c r="F644" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G644" s="5" t="s">
         <v>1421</v>
-      </c>
-      <c r="G644" s="5" t="s">
-        <v>1422</v>
       </c>
       <c r="H644" s="3" t="s">
         <v>16</v>
@@ -29502,7 +29499,7 @@
         <v>252</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="D645" s="3" t="s">
         <v>325</v>
@@ -29511,7 +29508,7 @@
         <v>528</v>
       </c>
       <c r="F645" s="3" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G645" s="3" t="s">
         <v>16</v>
@@ -29539,7 +29536,7 @@
         <v>252</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D646" s="3" t="s">
         <v>325</v>
@@ -29548,7 +29545,7 @@
         <v>528</v>
       </c>
       <c r="F646" s="3" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G646" s="3" t="s">
         <v>16</v>
@@ -29576,7 +29573,7 @@
         <v>209</v>
       </c>
       <c r="C647" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D647" s="3" t="s">
         <v>325</v>
@@ -29585,10 +29582,10 @@
         <v>326</v>
       </c>
       <c r="F647" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G647" s="5" t="s">
         <v>1428</v>
-      </c>
-      <c r="G647" s="5" t="s">
-        <v>1429</v>
       </c>
       <c r="H647" s="3" t="s">
         <v>16</v>
@@ -29613,7 +29610,7 @@
         <v>209</v>
       </c>
       <c r="C648" s="3" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D648" s="3" t="s">
         <v>325</v>
@@ -29622,7 +29619,7 @@
         <v>705</v>
       </c>
       <c r="F648" s="3" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="G648" s="3" t="s">
         <v>16</v>
@@ -29687,7 +29684,7 @@
         <v>211</v>
       </c>
       <c r="C650" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D650" s="3" t="s">
         <v>369</v>
@@ -29696,13 +29693,13 @@
         <v>326</v>
       </c>
       <c r="F650" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G650" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H650" s="3" t="s">
         <v>1433</v>
-      </c>
-      <c r="G650" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H650" s="3" t="s">
-        <v>1434</v>
       </c>
       <c r="I650" s="3" t="s">
         <v>16</v>
@@ -29724,7 +29721,7 @@
         <v>211</v>
       </c>
       <c r="C651" s="3" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D651" s="3" t="s">
         <v>325</v>
@@ -29733,13 +29730,13 @@
         <v>342</v>
       </c>
       <c r="F651" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G651" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H651" s="3" t="s">
         <v>1436</v>
-      </c>
-      <c r="G651" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H651" s="3" t="s">
-        <v>1437</v>
       </c>
       <c r="I651" s="3" t="s">
         <v>16</v>
@@ -29798,7 +29795,7 @@
         <v>215</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D653" s="3" t="s">
         <v>325</v>
@@ -29807,7 +29804,7 @@
         <v>387</v>
       </c>
       <c r="F653" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="G653" s="3" t="s">
         <v>16</v>
@@ -29835,7 +29832,7 @@
         <v>215</v>
       </c>
       <c r="C654" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D654" s="3" t="s">
         <v>325</v>
@@ -29844,7 +29841,7 @@
         <v>342</v>
       </c>
       <c r="F654" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G654" s="3" t="s">
         <v>16</v>
@@ -29872,7 +29869,7 @@
         <v>215</v>
       </c>
       <c r="C655" s="3" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D655" s="3" t="s">
         <v>325</v>
@@ -29881,7 +29878,7 @@
         <v>342</v>
       </c>
       <c r="F655" s="3" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G655" s="3" t="s">
         <v>16</v>
@@ -29909,7 +29906,7 @@
         <v>215</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D656" s="3" t="s">
         <v>325</v>
@@ -29918,10 +29915,10 @@
         <v>326</v>
       </c>
       <c r="F656" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G656" s="5" t="s">
         <v>1445</v>
-      </c>
-      <c r="G656" s="5" t="s">
-        <v>1446</v>
       </c>
       <c r="H656" s="3" t="s">
         <v>16</v>
@@ -29946,7 +29943,7 @@
         <v>215</v>
       </c>
       <c r="C657" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D657" s="3" t="s">
         <v>325</v>
@@ -29955,10 +29952,10 @@
         <v>326</v>
       </c>
       <c r="F657" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G657" s="5" t="s">
         <v>1448</v>
-      </c>
-      <c r="G657" s="5" t="s">
-        <v>1449</v>
       </c>
       <c r="H657" s="3" t="s">
         <v>16</v>
@@ -29983,7 +29980,7 @@
         <v>215</v>
       </c>
       <c r="C658" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D658" s="3" t="s">
         <v>325</v>
@@ -29992,7 +29989,7 @@
         <v>342</v>
       </c>
       <c r="F658" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G658" s="3" t="s">
         <v>16</v>
@@ -30020,7 +30017,7 @@
         <v>215</v>
       </c>
       <c r="C659" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D659" s="3" t="s">
         <v>325</v>
@@ -30029,10 +30026,10 @@
         <v>326</v>
       </c>
       <c r="F659" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G659" s="5" t="s">
         <v>1451</v>
-      </c>
-      <c r="G659" s="5" t="s">
-        <v>1452</v>
       </c>
       <c r="H659" s="3" t="s">
         <v>16</v>
@@ -30066,7 +30063,7 @@
         <v>397</v>
       </c>
       <c r="F660" s="3" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="G660" s="3" t="s">
         <v>16</v>
@@ -30103,10 +30100,10 @@
         <v>326</v>
       </c>
       <c r="F661" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G661" s="5" t="s">
         <v>1454</v>
-      </c>
-      <c r="G661" s="5" t="s">
-        <v>1455</v>
       </c>
       <c r="H661" s="3" t="s">
         <v>16</v>
@@ -30131,7 +30128,7 @@
         <v>215</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D662" s="3" t="s">
         <v>325</v>
@@ -30140,10 +30137,10 @@
         <v>326</v>
       </c>
       <c r="F662" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G662" s="3" t="s">
         <v>1457</v>
-      </c>
-      <c r="G662" s="3" t="s">
-        <v>1458</v>
       </c>
       <c r="H662" s="3" t="s">
         <v>16</v>
@@ -30168,7 +30165,7 @@
         <v>215</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D663" s="3" t="s">
         <v>325</v>
@@ -30177,7 +30174,7 @@
         <v>528</v>
       </c>
       <c r="F663" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="G663" s="3" t="s">
         <v>16</v>
@@ -30214,7 +30211,7 @@
         <v>528</v>
       </c>
       <c r="F664" s="3" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="G664" s="3" t="s">
         <v>16</v>
@@ -30242,7 +30239,7 @@
         <v>215</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D665" s="3" t="s">
         <v>325</v>
@@ -30251,10 +30248,10 @@
         <v>326</v>
       </c>
       <c r="F665" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G665" s="5" t="s">
         <v>1462</v>
-      </c>
-      <c r="G665" s="5" t="s">
-        <v>1463</v>
       </c>
       <c r="H665" s="3" t="s">
         <v>16</v>
@@ -30279,7 +30276,7 @@
         <v>215</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D666" s="3" t="s">
         <v>325</v>
@@ -30288,7 +30285,7 @@
         <v>402</v>
       </c>
       <c r="F666" s="3" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G666" s="3" t="s">
         <v>16</v>
@@ -30316,7 +30313,7 @@
         <v>215</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D667" s="3" t="s">
         <v>369</v>
@@ -30325,7 +30322,7 @@
         <v>712</v>
       </c>
       <c r="F667" s="3" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G667" s="3" t="s">
         <v>16</v>
@@ -30362,7 +30359,7 @@
         <v>406</v>
       </c>
       <c r="F668" s="3" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G668" s="3" t="s">
         <v>16</v>
@@ -30427,7 +30424,7 @@
         <v>217</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D670" s="3" t="s">
         <v>325</v>
@@ -30436,7 +30433,7 @@
         <v>387</v>
       </c>
       <c r="F670" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G670" s="3" t="s">
         <v>16</v>
@@ -30464,7 +30461,7 @@
         <v>217</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D671" s="3" t="s">
         <v>325</v>
@@ -30473,7 +30470,7 @@
         <v>901</v>
       </c>
       <c r="F671" s="3" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G671" s="3" t="s">
         <v>16</v>
@@ -30501,7 +30498,7 @@
         <v>217</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="D672" s="3" t="s">
         <v>325</v>
@@ -30510,10 +30507,10 @@
         <v>326</v>
       </c>
       <c r="F672" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G672" s="5" t="s">
         <v>1474</v>
-      </c>
-      <c r="G672" s="5" t="s">
-        <v>1475</v>
       </c>
       <c r="H672" s="3" t="s">
         <v>16</v>
@@ -30538,7 +30535,7 @@
         <v>217</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D673" s="3" t="s">
         <v>325</v>
@@ -30547,7 +30544,7 @@
         <v>901</v>
       </c>
       <c r="F673" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="G673" s="3" t="s">
         <v>16</v>
@@ -30575,7 +30572,7 @@
         <v>217</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="D674" s="3" t="s">
         <v>325</v>
@@ -30584,10 +30581,10 @@
         <v>326</v>
       </c>
       <c r="F674" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G674" s="5" t="s">
         <v>1479</v>
-      </c>
-      <c r="G674" s="5" t="s">
-        <v>1480</v>
       </c>
       <c r="H674" s="3" t="s">
         <v>16</v>
@@ -30612,7 +30609,7 @@
         <v>217</v>
       </c>
       <c r="C675" s="3" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D675" s="3" t="s">
         <v>325</v>
@@ -30621,7 +30618,7 @@
         <v>387</v>
       </c>
       <c r="F675" s="3" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G675" s="3" t="s">
         <v>16</v>
@@ -30649,7 +30646,7 @@
         <v>217</v>
       </c>
       <c r="C676" s="3" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="D676" s="3" t="s">
         <v>325</v>
@@ -30658,7 +30655,7 @@
         <v>901</v>
       </c>
       <c r="F676" s="3" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="G676" s="3" t="s">
         <v>16</v>
@@ -30686,7 +30683,7 @@
         <v>217</v>
       </c>
       <c r="C677" s="3" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D677" s="3" t="s">
         <v>325</v>
@@ -30695,7 +30692,7 @@
         <v>326</v>
       </c>
       <c r="F677" s="3" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="G677" s="3" t="s">
         <v>16</v>
@@ -30723,7 +30720,7 @@
         <v>217</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D678" s="3" t="s">
         <v>325</v>
@@ -30732,7 +30729,7 @@
         <v>705</v>
       </c>
       <c r="F678" s="3" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="G678" s="3" t="s">
         <v>16</v>
@@ -30797,7 +30794,7 @@
         <v>217</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D680" s="3" t="s">
         <v>325</v>
@@ -30806,7 +30803,7 @@
         <v>517</v>
       </c>
       <c r="F680" s="3" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="G680" s="3" t="s">
         <v>16</v>
@@ -30834,7 +30831,7 @@
         <v>219</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D681" s="3" t="s">
         <v>325</v>
@@ -30843,10 +30840,10 @@
         <v>326</v>
       </c>
       <c r="F681" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G681" s="5" t="s">
         <v>1491</v>
-      </c>
-      <c r="G681" s="5" t="s">
-        <v>1492</v>
       </c>
       <c r="H681" s="3" t="s">
         <v>16</v>
@@ -30871,7 +30868,7 @@
         <v>219</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D682" s="3" t="s">
         <v>325</v>
@@ -30880,10 +30877,10 @@
         <v>326</v>
       </c>
       <c r="F682" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="G682" s="5" t="s">
         <v>1494</v>
-      </c>
-      <c r="G682" s="5" t="s">
-        <v>1495</v>
       </c>
       <c r="H682" s="3" t="s">
         <v>16</v>
@@ -30908,7 +30905,7 @@
         <v>219</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="D683" s="3" t="s">
         <v>325</v>
@@ -30917,7 +30914,7 @@
         <v>330</v>
       </c>
       <c r="F683" s="3" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G683" s="3" t="s">
         <v>16</v>
@@ -30945,7 +30942,7 @@
         <v>219</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D684" s="3" t="s">
         <v>325</v>
@@ -30954,7 +30951,7 @@
         <v>342</v>
       </c>
       <c r="F684" s="3" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G684" s="3" t="s">
         <v>16</v>
@@ -31019,7 +31016,7 @@
         <v>254</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D686" s="3" t="s">
         <v>325</v>
@@ -31028,10 +31025,10 @@
         <v>326</v>
       </c>
       <c r="F686" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G686" s="5" t="s">
         <v>1501</v>
-      </c>
-      <c r="G686" s="5" t="s">
-        <v>1502</v>
       </c>
       <c r="H686" s="3" t="s">
         <v>221</v>
@@ -31056,7 +31053,7 @@
         <v>256</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D687" s="3" t="s">
         <v>325</v>
@@ -31065,10 +31062,10 @@
         <v>326</v>
       </c>
       <c r="F687" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G687" s="5" t="s">
         <v>1504</v>
-      </c>
-      <c r="G687" s="5" t="s">
-        <v>1505</v>
       </c>
       <c r="H687" s="3" t="s">
         <v>221</v>
@@ -31093,7 +31090,7 @@
         <v>258</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D688" s="3" t="s">
         <v>325</v>
@@ -31102,10 +31099,10 @@
         <v>326</v>
       </c>
       <c r="F688" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G688" s="5" t="s">
         <v>1507</v>
-      </c>
-      <c r="G688" s="5" t="s">
-        <v>1508</v>
       </c>
       <c r="H688" s="3" t="s">
         <v>221</v>
@@ -31139,10 +31136,10 @@
         <v>326</v>
       </c>
       <c r="F689" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G689" s="5" t="s">
         <v>1509</v>
-      </c>
-      <c r="G689" s="5" t="s">
-        <v>1510</v>
       </c>
       <c r="H689" s="3" t="s">
         <v>221</v>
@@ -31176,10 +31173,10 @@
         <v>326</v>
       </c>
       <c r="F690" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="G690" s="5" t="s">
         <v>1511</v>
-      </c>
-      <c r="G690" s="5" t="s">
-        <v>1512</v>
       </c>
       <c r="H690" s="3" t="s">
         <v>221</v>
@@ -31204,7 +31201,7 @@
         <v>264</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D691" s="3" t="s">
         <v>325</v>
@@ -31213,10 +31210,10 @@
         <v>326</v>
       </c>
       <c r="F691" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G691" s="5" t="s">
         <v>1514</v>
-      </c>
-      <c r="G691" s="5" t="s">
-        <v>1515</v>
       </c>
       <c r="H691" s="3" t="s">
         <v>221</v>
@@ -31241,7 +31238,7 @@
         <v>266</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D692" s="3" t="s">
         <v>325</v>
@@ -31250,10 +31247,10 @@
         <v>326</v>
       </c>
       <c r="F692" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G692" s="5" t="s">
         <v>1517</v>
-      </c>
-      <c r="G692" s="5" t="s">
-        <v>1518</v>
       </c>
       <c r="H692" s="3" t="s">
         <v>221</v>
@@ -31278,7 +31275,7 @@
         <v>268</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D693" s="3" t="s">
         <v>325</v>
@@ -31287,10 +31284,10 @@
         <v>326</v>
       </c>
       <c r="F693" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="G693" s="5" t="s">
         <v>1520</v>
-      </c>
-      <c r="G693" s="5" t="s">
-        <v>1521</v>
       </c>
       <c r="H693" s="3" t="s">
         <v>221</v>
@@ -31315,7 +31312,7 @@
         <v>270</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D694" s="3" t="s">
         <v>325</v>
@@ -31324,10 +31321,10 @@
         <v>326</v>
       </c>
       <c r="F694" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G694" s="5" t="s">
         <v>1523</v>
-      </c>
-      <c r="G694" s="5" t="s">
-        <v>1524</v>
       </c>
       <c r="H694" s="3" t="s">
         <v>221</v>
@@ -31352,7 +31349,7 @@
         <v>272</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="D695" s="3" t="s">
         <v>325</v>
@@ -31361,10 +31358,10 @@
         <v>326</v>
       </c>
       <c r="F695" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G695" s="5" t="s">
         <v>1526</v>
-      </c>
-      <c r="G695" s="5" t="s">
-        <v>1527</v>
       </c>
       <c r="H695" s="3" t="s">
         <v>221</v>
@@ -31389,7 +31386,7 @@
         <v>274</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="D696" s="3" t="s">
         <v>325</v>
@@ -31398,10 +31395,10 @@
         <v>326</v>
       </c>
       <c r="F696" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G696" s="5" t="s">
         <v>1529</v>
-      </c>
-      <c r="G696" s="5" t="s">
-        <v>1530</v>
       </c>
       <c r="H696" s="3" t="s">
         <v>221</v>
@@ -31426,7 +31423,7 @@
         <v>276</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D697" s="3" t="s">
         <v>325</v>
@@ -31435,10 +31432,10 @@
         <v>326</v>
       </c>
       <c r="F697" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G697" s="5" t="s">
         <v>1532</v>
-      </c>
-      <c r="G697" s="5" t="s">
-        <v>1533</v>
       </c>
       <c r="H697" s="3" t="s">
         <v>221</v>
@@ -31463,7 +31460,7 @@
         <v>278</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="D698" s="3" t="s">
         <v>325</v>
@@ -31472,10 +31469,10 @@
         <v>326</v>
       </c>
       <c r="F698" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G698" s="5" t="s">
         <v>1535</v>
-      </c>
-      <c r="G698" s="5" t="s">
-        <v>1536</v>
       </c>
       <c r="H698" s="3" t="s">
         <v>221</v>
@@ -31500,7 +31497,7 @@
         <v>280</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="D699" s="3" t="s">
         <v>325</v>
@@ -31509,10 +31506,10 @@
         <v>326</v>
       </c>
       <c r="F699" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="G699" s="5" t="s">
         <v>1538</v>
-      </c>
-      <c r="G699" s="5" t="s">
-        <v>1539</v>
       </c>
       <c r="H699" s="3" t="s">
         <v>221</v>
@@ -31537,7 +31534,7 @@
         <v>222</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D700" s="3" t="s">
         <v>325</v>
@@ -31546,10 +31543,10 @@
         <v>326</v>
       </c>
       <c r="F700" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G700" s="5" t="s">
         <v>1540</v>
-      </c>
-      <c r="G700" s="5" t="s">
-        <v>1541</v>
       </c>
       <c r="H700" s="3" t="s">
         <v>16</v>
@@ -31574,7 +31571,7 @@
         <v>222</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D701" s="3" t="s">
         <v>325</v>
@@ -31583,10 +31580,10 @@
         <v>326</v>
       </c>
       <c r="F701" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="G701" s="3" t="s">
         <v>1542</v>
-      </c>
-      <c r="G701" s="3" t="s">
-        <v>1543</v>
       </c>
       <c r="H701" s="3" t="s">
         <v>16</v>
@@ -31648,7 +31645,7 @@
         <v>224</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="D703" s="3" t="s">
         <v>325</v>
@@ -31657,10 +31654,10 @@
         <v>326</v>
       </c>
       <c r="F703" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G703" s="3" t="s">
         <v>1545</v>
-      </c>
-      <c r="G703" s="3" t="s">
-        <v>1546</v>
       </c>
       <c r="H703" s="3" t="s">
         <v>16</v>
@@ -31685,7 +31682,7 @@
         <v>224</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D704" s="3" t="s">
         <v>325</v>
@@ -31694,7 +31691,7 @@
         <v>528</v>
       </c>
       <c r="F704" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="G704" s="3" t="s">
         <v>16</v>
@@ -31722,7 +31719,7 @@
         <v>224</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D705" s="3" t="s">
         <v>325</v>
@@ -31731,7 +31728,7 @@
         <v>528</v>
       </c>
       <c r="F705" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G705" s="3" t="s">
         <v>16</v>
@@ -31759,7 +31756,7 @@
         <v>224</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D706" s="3" t="s">
         <v>325</v>
@@ -31768,7 +31765,7 @@
         <v>342</v>
       </c>
       <c r="F706" s="3" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G706" s="3" t="s">
         <v>16</v>
@@ -31833,7 +31830,7 @@
         <v>226</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="D708" s="3" t="s">
         <v>325</v>
@@ -31842,7 +31839,7 @@
         <v>387</v>
       </c>
       <c r="F708" s="3" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G708" s="3" t="s">
         <v>16</v>
@@ -31879,7 +31876,7 @@
         <v>330</v>
       </c>
       <c r="F709" s="3" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G709" s="3" t="s">
         <v>16</v>
@@ -31907,7 +31904,7 @@
         <v>226</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D710" s="3" t="s">
         <v>369</v>
@@ -31916,7 +31913,7 @@
         <v>330</v>
       </c>
       <c r="F710" s="3" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G710" s="3" t="s">
         <v>16</v>
@@ -31953,7 +31950,7 @@
         <v>330</v>
       </c>
       <c r="F711" s="3" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G711" s="3" t="s">
         <v>16</v>
@@ -32018,7 +32015,7 @@
         <v>228</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D713" s="3" t="s">
         <v>325</v>
@@ -32027,7 +32024,7 @@
         <v>387</v>
       </c>
       <c r="F713" s="3" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G713" s="3" t="s">
         <v>16</v>
@@ -32055,7 +32052,7 @@
         <v>228</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D714" s="3" t="s">
         <v>325</v>
@@ -32064,10 +32061,10 @@
         <v>326</v>
       </c>
       <c r="F714" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G714" s="5" t="s">
         <v>1561</v>
-      </c>
-      <c r="G714" s="5" t="s">
-        <v>1562</v>
       </c>
       <c r="H714" s="3" t="s">
         <v>16</v>
@@ -32092,7 +32089,7 @@
         <v>228</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D715" s="3" t="s">
         <v>325</v>
@@ -32101,7 +32098,7 @@
         <v>517</v>
       </c>
       <c r="F715" s="3" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G715" s="3" t="s">
         <v>16</v>
@@ -32129,7 +32126,7 @@
         <v>228</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D716" s="3" t="s">
         <v>325</v>
@@ -32138,7 +32135,7 @@
         <v>705</v>
       </c>
       <c r="F716" s="3" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G716" s="3" t="s">
         <v>16</v>
@@ -32166,16 +32163,16 @@
         <v>228</v>
       </c>
       <c r="C717" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D717" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E717" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="D717" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E717" s="3" t="s">
+      <c r="F717" s="3" t="s">
         <v>1568</v>
-      </c>
-      <c r="F717" s="3" t="s">
-        <v>1569</v>
       </c>
       <c r="G717" s="3" t="s">
         <v>16</v>
@@ -32203,16 +32200,16 @@
         <v>228</v>
       </c>
       <c r="C718" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D718" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E718" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F718" s="3" t="s">
         <v>1570</v>
-      </c>
-      <c r="D718" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E718" s="3" t="s">
-        <v>1568</v>
-      </c>
-      <c r="F718" s="3" t="s">
-        <v>1571</v>
       </c>
       <c r="G718" s="3" t="s">
         <v>16</v>
@@ -32240,7 +32237,7 @@
         <v>228</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D719" s="3" t="s">
         <v>325</v>
@@ -32249,7 +32246,7 @@
         <v>326</v>
       </c>
       <c r="F719" s="3" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G719" s="3" t="s">
         <v>16</v>
@@ -32277,7 +32274,7 @@
         <v>228</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D720" s="3" t="s">
         <v>325</v>
@@ -32286,7 +32283,7 @@
         <v>330</v>
       </c>
       <c r="F720" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="G720" s="3" t="s">
         <v>16</v>
@@ -32314,7 +32311,7 @@
         <v>228</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D721" s="3" t="s">
         <v>325</v>
@@ -32323,7 +32320,7 @@
         <v>330</v>
       </c>
       <c r="F721" s="3" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="G721" s="3" t="s">
         <v>16</v>
@@ -32351,7 +32348,7 @@
         <v>228</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D722" s="3" t="s">
         <v>325</v>
@@ -32360,7 +32357,7 @@
         <v>330</v>
       </c>
       <c r="F722" s="3" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G722" s="3" t="s">
         <v>16</v>
@@ -32397,7 +32394,7 @@
         <v>342</v>
       </c>
       <c r="F723" s="3" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="G723" s="3" t="s">
         <v>16</v>
@@ -32462,7 +32459,7 @@
         <v>231</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D725" s="3" t="s">
         <v>325</v>
@@ -32471,10 +32468,10 @@
         <v>326</v>
       </c>
       <c r="F725" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G725" s="5" t="s">
         <v>1582</v>
-      </c>
-      <c r="G725" s="5" t="s">
-        <v>1583</v>
       </c>
       <c r="H725" s="3" t="s">
         <v>16</v>
@@ -32508,7 +32505,7 @@
         <v>330</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="G726" s="3" t="s">
         <v>16</v>
@@ -32573,7 +32570,7 @@
         <v>233</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D728" s="3" t="s">
         <v>369</v>
@@ -32582,13 +32579,13 @@
         <v>387</v>
       </c>
       <c r="F728" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G728" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H728" s="3" t="s">
         <v>1585</v>
-      </c>
-      <c r="G728" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H728" s="3" t="s">
-        <v>1586</v>
       </c>
       <c r="I728" s="3" t="s">
         <v>16</v>
@@ -32601,7 +32598,7 @@
       <c r="M728" s="3"/>
       <c r="N728" s="3"/>
       <c r="O728" s="3" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="729" spans="1:15" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -32612,7 +32609,7 @@
         <v>233</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D729" s="3" t="s">
         <v>325</v>
@@ -32621,13 +32618,13 @@
         <v>342</v>
       </c>
       <c r="F729" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G729" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H729" s="3" t="s">
         <v>1588</v>
-      </c>
-      <c r="G729" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H729" s="3" t="s">
-        <v>1589</v>
       </c>
       <c r="I729" s="3" t="s">
         <v>16</v>
@@ -32649,7 +32646,7 @@
         <v>233</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D730" s="3" t="s">
         <v>325</v>
@@ -32658,13 +32655,13 @@
         <v>342</v>
       </c>
       <c r="F730" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G730" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H730" s="3" t="s">
         <v>1590</v>
-      </c>
-      <c r="G730" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H730" s="3" t="s">
-        <v>1591</v>
       </c>
       <c r="I730" s="3" t="s">
         <v>16</v>
@@ -32686,7 +32683,7 @@
         <v>233</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D731" s="3" t="s">
         <v>325</v>
@@ -32695,13 +32692,13 @@
         <v>326</v>
       </c>
       <c r="F731" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G731" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H731" s="3" t="s">
         <v>1593</v>
-      </c>
-      <c r="G731" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H731" s="3" t="s">
-        <v>1594</v>
       </c>
       <c r="I731" s="3" t="s">
         <v>16</v>
@@ -32723,7 +32720,7 @@
         <v>233</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D732" s="3" t="s">
         <v>325</v>
@@ -32732,13 +32729,13 @@
         <v>326</v>
       </c>
       <c r="F732" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G732" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H732" s="3" t="s">
         <v>1596</v>
-      </c>
-      <c r="G732" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H732" s="3" t="s">
-        <v>1597</v>
       </c>
       <c r="I732" s="3" t="s">
         <v>16</v>
@@ -32760,7 +32757,7 @@
         <v>233</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D733" s="3" t="s">
         <v>325</v>
@@ -32769,13 +32766,13 @@
         <v>326</v>
       </c>
       <c r="F733" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G733" s="5" t="s">
         <v>1598</v>
       </c>
-      <c r="G733" s="5" t="s">
+      <c r="H733" s="3" t="s">
         <v>1599</v>
-      </c>
-      <c r="H733" s="3" t="s">
-        <v>1600</v>
       </c>
       <c r="I733" s="3" t="s">
         <v>16</v>
@@ -32834,7 +32831,7 @@
         <v>233</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D735" s="3" t="s">
         <v>325</v>
@@ -32843,10 +32840,10 @@
         <v>326</v>
       </c>
       <c r="F735" s="3" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="G735" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="H735" s="3" t="s">
         <v>16</v>
@@ -32871,7 +32868,7 @@
         <v>233</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D736" s="3" t="s">
         <v>325</v>
@@ -32880,13 +32877,13 @@
         <v>402</v>
       </c>
       <c r="F736" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G736" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H736" s="3" t="s">
         <v>1603</v>
-      </c>
-      <c r="G736" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H736" s="3" t="s">
-        <v>1604</v>
       </c>
       <c r="I736" s="3" t="s">
         <v>16</v>
@@ -32908,22 +32905,22 @@
         <v>233</v>
       </c>
       <c r="C737" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E737" s="3" t="s">
         <v>1605</v>
       </c>
-      <c r="D737" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E737" s="3" t="s">
+      <c r="F737" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="F737" s="3" t="s">
+      <c r="G737" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H737" s="3" t="s">
         <v>1607</v>
-      </c>
-      <c r="G737" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H737" s="3" t="s">
-        <v>1608</v>
       </c>
       <c r="I737" s="3" t="s">
         <v>16</v>
@@ -32954,13 +32951,13 @@
         <v>406</v>
       </c>
       <c r="F738" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G738" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H738" s="3" t="s">
         <v>1609</v>
-      </c>
-      <c r="G738" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H738" s="3" t="s">
-        <v>1610</v>
       </c>
       <c r="I738" s="3" t="s">
         <v>16</v>
@@ -33019,7 +33016,7 @@
         <v>236</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D740" s="3" t="s">
         <v>325</v>
@@ -33028,7 +33025,7 @@
         <v>387</v>
       </c>
       <c r="F740" s="3" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="G740" s="3" t="s">
         <v>16</v>
@@ -33056,7 +33053,7 @@
         <v>236</v>
       </c>
       <c r="C741" s="3" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D741" s="3" t="s">
         <v>369</v>
@@ -33065,7 +33062,7 @@
         <v>330</v>
       </c>
       <c r="F741" s="3" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="G741" s="3" t="s">
         <v>16</v>
@@ -33093,7 +33090,7 @@
         <v>236</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D742" s="3" t="s">
         <v>369</v>
@@ -33102,7 +33099,7 @@
         <v>330</v>
       </c>
       <c r="F742" s="3" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="G742" s="3" t="s">
         <v>16</v>
@@ -33130,7 +33127,7 @@
         <v>236</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="D743" s="3" t="s">
         <v>369</v>
@@ -33139,7 +33136,7 @@
         <v>402</v>
       </c>
       <c r="F743" s="3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="G743" s="3" t="s">
         <v>16</v>
@@ -33176,7 +33173,7 @@
         <v>406</v>
       </c>
       <c r="F744" s="3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="G744" s="3" t="s">
         <v>16</v>
@@ -33241,7 +33238,7 @@
         <v>238</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D746" s="3" t="s">
         <v>369</v>
@@ -33250,7 +33247,7 @@
         <v>387</v>
       </c>
       <c r="F746" s="3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="G746" s="3" t="s">
         <v>16</v>
@@ -33278,7 +33275,7 @@
         <v>238</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D747" s="3" t="s">
         <v>325</v>
@@ -33287,7 +33284,7 @@
         <v>342</v>
       </c>
       <c r="F747" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="G747" s="3" t="s">
         <v>16</v>
@@ -33324,7 +33321,7 @@
         <v>342</v>
       </c>
       <c r="F748" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G748" s="3" t="s">
         <v>16</v>
@@ -33361,7 +33358,7 @@
         <v>528</v>
       </c>
       <c r="F749" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G749" s="3" t="s">
         <v>16</v>
@@ -33389,7 +33386,7 @@
         <v>238</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D750" s="3" t="s">
         <v>325</v>
@@ -33398,7 +33395,7 @@
         <v>528</v>
       </c>
       <c r="F750" s="3" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="G750" s="3" t="s">
         <v>16</v>
@@ -33435,7 +33432,7 @@
         <v>528</v>
       </c>
       <c r="F751" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="G751" s="3" t="s">
         <v>16</v>
@@ -33463,16 +33460,16 @@
         <v>238</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D752" s="3" t="s">
         <v>369</v>
       </c>
       <c r="E752" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F752" s="3" t="s">
         <v>1628</v>
-      </c>
-      <c r="F752" s="3" t="s">
-        <v>1629</v>
       </c>
       <c r="G752" s="3" t="s">
         <v>16</v>
@@ -33500,7 +33497,7 @@
         <v>240</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D753" s="3" t="s">
         <v>325</v>
@@ -33509,7 +33506,7 @@
         <v>901</v>
       </c>
       <c r="F753" s="3" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="G753" s="3" t="s">
         <v>16</v>
@@ -33537,7 +33534,7 @@
         <v>240</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D754" s="3" t="s">
         <v>325</v>
@@ -33546,7 +33543,7 @@
         <v>901</v>
       </c>
       <c r="F754" s="3" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="G754" s="3" t="s">
         <v>16</v>
@@ -33574,7 +33571,7 @@
         <v>240</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D755" s="3" t="s">
         <v>369</v>
@@ -33583,10 +33580,10 @@
         <v>326</v>
       </c>
       <c r="F755" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="G755" s="5" t="s">
         <v>1635</v>
-      </c>
-      <c r="G755" s="5" t="s">
-        <v>1636</v>
       </c>
       <c r="H755" s="3" t="s">
         <v>16</v>
@@ -33611,7 +33608,7 @@
         <v>240</v>
       </c>
       <c r="C756" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D756" s="3" t="s">
         <v>369</v>
@@ -33620,10 +33617,10 @@
         <v>326</v>
       </c>
       <c r="F756" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G756" s="5" t="s">
         <v>1638</v>
-      </c>
-      <c r="G756" s="5" t="s">
-        <v>1639</v>
       </c>
       <c r="H756" s="3" t="s">
         <v>16</v>
@@ -33685,7 +33682,7 @@
         <v>242</v>
       </c>
       <c r="C758" s="3" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D758" s="3" t="s">
         <v>325</v>
@@ -33694,13 +33691,13 @@
         <v>326</v>
       </c>
       <c r="F758" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="G758" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="G758" s="5" t="s">
+      <c r="H758" s="3" t="s">
         <v>1642</v>
-      </c>
-      <c r="H758" s="3" t="s">
-        <v>1643</v>
       </c>
       <c r="I758" s="3" t="s">
         <v>16</v>
@@ -33722,7 +33719,7 @@
         <v>242</v>
       </c>
       <c r="C759" s="3" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D759" s="3" t="s">
         <v>325</v>
@@ -33731,13 +33728,13 @@
         <v>342</v>
       </c>
       <c r="F759" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G759" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H759" s="3" t="s">
         <v>1645</v>
-      </c>
-      <c r="G759" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H759" s="3" t="s">
-        <v>1646</v>
       </c>
       <c r="I759" s="3" t="s">
         <v>16</v>
@@ -33759,7 +33756,7 @@
         <v>242</v>
       </c>
       <c r="C760" s="3" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D760" s="3" t="s">
         <v>325</v>
@@ -33768,13 +33765,13 @@
         <v>342</v>
       </c>
       <c r="F760" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G760" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H760" s="3" t="s">
         <v>1648</v>
-      </c>
-      <c r="G760" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H760" s="3" t="s">
-        <v>1649</v>
       </c>
       <c r="I760" s="3" t="s">
         <v>16</v>
@@ -33796,7 +33793,7 @@
         <v>242</v>
       </c>
       <c r="C761" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D761" s="3" t="s">
         <v>369</v>
@@ -33805,13 +33802,13 @@
         <v>342</v>
       </c>
       <c r="F761" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="G761" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H761" s="3" t="s">
         <v>1651</v>
-      </c>
-      <c r="G761" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H761" s="3" t="s">
-        <v>1652</v>
       </c>
       <c r="I761" s="3" t="s">
         <v>16</v>
@@ -33833,7 +33830,7 @@
         <v>242</v>
       </c>
       <c r="C762" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D762" s="3" t="s">
         <v>325</v>
@@ -33842,13 +33839,13 @@
         <v>342</v>
       </c>
       <c r="F762" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="G762" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H762" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="I762" s="3" t="s">
         <v>16</v>
@@ -33870,7 +33867,7 @@
         <v>242</v>
       </c>
       <c r="C763" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D763" s="3" t="s">
         <v>325</v>
@@ -33879,7 +33876,7 @@
         <v>342</v>
       </c>
       <c r="F763" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="G763" s="3" t="s">
         <v>16</v>
@@ -33907,7 +33904,7 @@
         <v>242</v>
       </c>
       <c r="C764" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D764" s="3" t="s">
         <v>325</v>
@@ -33916,7 +33913,7 @@
         <v>342</v>
       </c>
       <c r="F764" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G764" s="3" t="s">
         <v>16</v>
@@ -33944,7 +33941,7 @@
         <v>242</v>
       </c>
       <c r="C765" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D765" s="3" t="s">
         <v>325</v>
@@ -33953,13 +33950,13 @@
         <v>326</v>
       </c>
       <c r="F765" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G765" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="G765" s="3" t="s">
+      <c r="H765" s="3" t="s">
         <v>1661</v>
-      </c>
-      <c r="H765" s="3" t="s">
-        <v>1662</v>
       </c>
       <c r="I765" s="3" t="s">
         <v>16</v>
@@ -33990,13 +33987,13 @@
         <v>326</v>
       </c>
       <c r="F766" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G766" s="3" t="s">
         <v>1663</v>
       </c>
-      <c r="G766" s="3" t="s">
-        <v>1664</v>
-      </c>
       <c r="H766" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I766" s="3" t="s">
         <v>16</v>
@@ -34009,7 +34006,7 @@
       <c r="M766" s="3"/>
       <c r="N766" s="3"/>
       <c r="O766" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="767" spans="1:15" ht="43.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -34020,16 +34017,16 @@
         <v>242</v>
       </c>
       <c r="C767" s="3" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D767" s="3" t="s">
         <v>369</v>
       </c>
       <c r="E767" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F767" s="3" t="s">
         <v>1666</v>
-      </c>
-      <c r="F767" s="3" t="s">
-        <v>1667</v>
       </c>
       <c r="G767" s="3" t="s">
         <v>16</v>
@@ -34057,7 +34054,7 @@
         <v>242</v>
       </c>
       <c r="C768" s="3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D768" s="3" t="s">
         <v>325</v>
@@ -34066,7 +34063,7 @@
         <v>326</v>
       </c>
       <c r="F768" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="G768" s="3" t="s">
         <v>16</v>
@@ -34103,13 +34100,13 @@
         <v>330</v>
       </c>
       <c r="F769" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G769" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H769" s="3" t="s">
         <v>1670</v>
-      </c>
-      <c r="G769" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H769" s="3" t="s">
-        <v>1671</v>
       </c>
       <c r="I769" s="3" t="s">
         <v>16</v>
@@ -34122,7 +34119,7 @@
       <c r="M769" s="3"/>
       <c r="N769" s="3"/>
       <c r="O769" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="770" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -34133,7 +34130,7 @@
         <v>242</v>
       </c>
       <c r="C770" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D770" s="3" t="s">
         <v>325</v>
@@ -34142,7 +34139,7 @@
         <v>330</v>
       </c>
       <c r="F770" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="G770" s="3" t="s">
         <v>16</v>
@@ -34161,7 +34158,7 @@
       <c r="M770" s="3"/>
       <c r="N770" s="3"/>
       <c r="O770" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="771" spans="1:15" ht="29.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -34172,7 +34169,7 @@
         <v>242</v>
       </c>
       <c r="C771" s="3" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D771" s="3" t="s">
         <v>325</v>
@@ -34181,13 +34178,13 @@
         <v>326</v>
       </c>
       <c r="F771" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G771" s="5" t="s">
         <v>1677</v>
       </c>
-      <c r="G771" s="5" t="s">
+      <c r="H771" s="3" t="s">
         <v>1678</v>
-      </c>
-      <c r="H771" s="3" t="s">
-        <v>1679</v>
       </c>
       <c r="I771" s="3" t="s">
         <v>16</v>
@@ -34209,7 +34206,7 @@
         <v>242</v>
       </c>
       <c r="C772" s="3" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D772" s="3" t="s">
         <v>325</v>
@@ -34218,13 +34215,13 @@
         <v>326</v>
       </c>
       <c r="F772" s="3" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="G772" s="5" t="s">
         <v>367</v>
       </c>
       <c r="H772" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I772" s="3" t="s">
         <v>16</v>
@@ -34246,7 +34243,7 @@
         <v>242</v>
       </c>
       <c r="C773" s="3" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D773" s="3" t="s">
         <v>325</v>
@@ -34255,13 +34252,13 @@
         <v>326</v>
       </c>
       <c r="F773" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G773" s="3" t="s">
         <v>1684</v>
       </c>
-      <c r="G773" s="3" t="s">
+      <c r="H773" s="3" t="s">
         <v>1685</v>
-      </c>
-      <c r="H773" s="3" t="s">
-        <v>1686</v>
       </c>
       <c r="I773" s="3" t="s">
         <v>16</v>
@@ -34292,13 +34289,13 @@
         <v>326</v>
       </c>
       <c r="F774" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G774" s="3" t="s">
         <v>1687</v>
       </c>
-      <c r="G774" s="3" t="s">
-        <v>1688</v>
-      </c>
       <c r="H774" s="3" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="I774" s="3" t="s">
         <v>16</v>
@@ -34320,7 +34317,7 @@
         <v>242</v>
       </c>
       <c r="C775" s="3" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D775" s="3" t="s">
         <v>325</v>
@@ -34329,10 +34326,10 @@
         <v>326</v>
       </c>
       <c r="F775" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G775" s="5" t="s">
         <v>1690</v>
-      </c>
-      <c r="G775" s="5" t="s">
-        <v>1691</v>
       </c>
       <c r="H775" s="3" t="s">
         <v>16</v>
@@ -34357,7 +34354,7 @@
         <v>242</v>
       </c>
       <c r="C776" s="3" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D776" s="3" t="s">
         <v>325</v>
@@ -34366,7 +34363,7 @@
         <v>330</v>
       </c>
       <c r="F776" s="3" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="G776" s="3" t="s">
         <v>16</v>
@@ -34394,7 +34391,7 @@
         <v>242</v>
       </c>
       <c r="C777" s="3" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D777" s="3" t="s">
         <v>325</v>
@@ -34403,7 +34400,7 @@
         <v>330</v>
       </c>
       <c r="F777" s="3" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="G777" s="3" t="s">
         <v>16</v>
@@ -34431,7 +34428,7 @@
         <v>242</v>
       </c>
       <c r="C778" s="3" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D778" s="3" t="s">
         <v>325</v>
@@ -34440,13 +34437,13 @@
         <v>326</v>
       </c>
       <c r="F778" s="3" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G778" s="3" t="s">
         <v>1697</v>
       </c>
-      <c r="G778" s="3" t="s">
-        <v>1698</v>
-      </c>
       <c r="H778" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I778" s="3" t="s">
         <v>16</v>
@@ -34468,7 +34465,7 @@
         <v>242</v>
       </c>
       <c r="C779" s="3" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D779" s="3" t="s">
         <v>325</v>
@@ -34477,13 +34474,13 @@
         <v>326</v>
       </c>
       <c r="F779" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G779" s="3" t="s">
         <v>1700</v>
       </c>
-      <c r="G779" s="3" t="s">
-        <v>1701</v>
-      </c>
       <c r="H779" s="3" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="I779" s="3" t="s">
         <v>16</v>
@@ -34505,7 +34502,7 @@
         <v>242</v>
       </c>
       <c r="C780" s="3" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D780" s="3" t="s">
         <v>325</v>
@@ -34514,10 +34511,10 @@
         <v>326</v>
       </c>
       <c r="F780" s="3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G780" s="3" t="s">
         <v>1703</v>
-      </c>
-      <c r="G780" s="3" t="s">
-        <v>1704</v>
       </c>
       <c r="H780" s="3" t="s">
         <v>16</v>
@@ -34542,7 +34539,7 @@
         <v>242</v>
       </c>
       <c r="C781" s="3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D781" s="3" t="s">
         <v>325</v>
@@ -34551,7 +34548,7 @@
         <v>326</v>
       </c>
       <c r="F781" s="3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="G781" s="3" t="s">
         <v>16</v>
@@ -34579,7 +34576,7 @@
         <v>242</v>
       </c>
       <c r="C782" s="3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D782" s="3" t="s">
         <v>325</v>
@@ -34588,7 +34585,7 @@
         <v>901</v>
       </c>
       <c r="F782" s="3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="G782" s="3" t="s">
         <v>16</v>
@@ -34616,7 +34613,7 @@
         <v>242</v>
       </c>
       <c r="C783" s="3" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D783" s="3" t="s">
         <v>325</v>
@@ -34625,7 +34622,7 @@
         <v>901</v>
       </c>
       <c r="F783" s="3" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="G783" s="3" t="s">
         <v>16</v>
@@ -34653,7 +34650,7 @@
         <v>242</v>
       </c>
       <c r="C784" s="3" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D784" s="3" t="s">
         <v>325</v>
@@ -34662,7 +34659,7 @@
         <v>901</v>
       </c>
       <c r="F784" s="3" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="G784" s="3" t="s">
         <v>16</v>
@@ -34690,7 +34687,7 @@
         <v>242</v>
       </c>
       <c r="C785" s="3" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D785" s="3" t="s">
         <v>325</v>
@@ -34699,7 +34696,7 @@
         <v>901</v>
       </c>
       <c r="F785" s="3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="G785" s="3" t="s">
         <v>16</v>
@@ -34727,16 +34724,16 @@
         <v>245</v>
       </c>
       <c r="C786" s="3" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D786" s="3" t="s">
         <v>369</v>
       </c>
       <c r="E786" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F786" s="3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G786" s="3" t="s">
         <v>16</v>
@@ -34764,7 +34761,7 @@
         <v>245</v>
       </c>
       <c r="C787" s="3" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>325</v>
@@ -34773,10 +34770,10 @@
         <v>326</v>
       </c>
       <c r="F787" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G787" s="5" t="s">
         <v>1718</v>
-      </c>
-      <c r="G787" s="5" t="s">
-        <v>1719</v>
       </c>
       <c r="H787" s="3" t="s">
         <v>16</v>
@@ -34801,7 +34798,7 @@
         <v>245</v>
       </c>
       <c r="C788" s="3" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D788" s="3" t="s">
         <v>325</v>
@@ -34810,10 +34807,10 @@
         <v>326</v>
       </c>
       <c r="F788" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G788" s="5" t="s">
         <v>1721</v>
-      </c>
-      <c r="G788" s="5" t="s">
-        <v>1722</v>
       </c>
       <c r="H788" s="3" t="s">
         <v>16</v>
@@ -34838,16 +34835,16 @@
         <v>245</v>
       </c>
       <c r="C789" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E789" s="3" t="s">
         <v>1723</v>
       </c>
-      <c r="D789" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E789" s="3" t="s">
+      <c r="F789" s="3" t="s">
         <v>1724</v>
-      </c>
-      <c r="F789" s="3" t="s">
-        <v>1725</v>
       </c>
       <c r="G789" s="3" t="s">
         <v>16</v>
@@ -34875,7 +34872,7 @@
         <v>245</v>
       </c>
       <c r="C790" s="3" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D790" s="3" t="s">
         <v>325</v>
@@ -34884,10 +34881,10 @@
         <v>326</v>
       </c>
       <c r="F790" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G790" s="5" t="s">
         <v>1727</v>
-      </c>
-      <c r="G790" s="5" t="s">
-        <v>1728</v>
       </c>
       <c r="H790" s="3" t="s">
         <v>16</v>
@@ -34921,7 +34918,7 @@
         <v>342</v>
       </c>
       <c r="F791" s="3" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G791" s="3" t="s">
         <v>16</v>
@@ -34949,7 +34946,7 @@
         <v>245</v>
       </c>
       <c r="C792" s="3" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D792" s="3" t="s">
         <v>325</v>
@@ -34958,7 +34955,7 @@
         <v>330</v>
       </c>
       <c r="F792" s="3" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G792" s="3" t="s">
         <v>16</v>
@@ -34986,7 +34983,7 @@
         <v>245</v>
       </c>
       <c r="C793" s="3" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D793" s="3" t="s">
         <v>325</v>
@@ -34995,7 +34992,7 @@
         <v>330</v>
       </c>
       <c r="F793" s="3" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G793" s="3" t="s">
         <v>16</v>
@@ -35023,7 +35020,7 @@
         <v>245</v>
       </c>
       <c r="C794" s="3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D794" s="3" t="s">
         <v>325</v>
@@ -35032,7 +35029,7 @@
         <v>330</v>
       </c>
       <c r="F794" s="3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="G794" s="3" t="s">
         <v>16</v>
@@ -35060,7 +35057,7 @@
         <v>245</v>
       </c>
       <c r="C795" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="D795" s="3" t="s">
         <v>325</v>
@@ -35069,7 +35066,7 @@
         <v>330</v>
       </c>
       <c r="F795" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G795" s="3" t="s">
         <v>16</v>
@@ -35134,7 +35131,7 @@
         <v>282</v>
       </c>
       <c r="C797" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D797" s="3" t="s">
         <v>369</v>
@@ -35143,10 +35140,10 @@
         <v>326</v>
       </c>
       <c r="F797" s="3" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G797" s="5" t="s">
         <v>1739</v>
-      </c>
-      <c r="G797" s="5" t="s">
-        <v>1740</v>
       </c>
       <c r="H797" s="3" t="s">
         <v>16</v>
@@ -35171,7 +35168,7 @@
         <v>282</v>
       </c>
       <c r="C798" s="3" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="D798" s="3" t="s">
         <v>369</v>
@@ -35180,7 +35177,7 @@
         <v>342</v>
       </c>
       <c r="F798" s="3" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="G798" s="3" t="s">
         <v>16</v>
@@ -35208,7 +35205,7 @@
         <v>282</v>
       </c>
       <c r="C799" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="D799" s="3" t="s">
         <v>325</v>
@@ -35217,7 +35214,7 @@
         <v>517</v>
       </c>
       <c r="F799" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G799" s="3" t="s">
         <v>16</v>
@@ -35245,7 +35242,7 @@
         <v>282</v>
       </c>
       <c r="C800" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D800" s="3" t="s">
         <v>325</v>
@@ -35254,10 +35251,10 @@
         <v>326</v>
       </c>
       <c r="F800" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G800" s="5" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H800" s="3" t="s">
         <v>16</v>
@@ -35291,7 +35288,7 @@
         <v>326</v>
       </c>
       <c r="F801" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G801" s="5" t="s">
         <v>854</v>
@@ -35319,7 +35316,7 @@
         <v>286</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>325</v>
@@ -35328,10 +35325,10 @@
         <v>326</v>
       </c>
       <c r="F802" s="3" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G802" s="5" t="s">
         <v>1748</v>
-      </c>
-      <c r="G802" s="5" t="s">
-        <v>1749</v>
       </c>
       <c r="H802" s="3" t="s">
         <v>16</v>
@@ -35365,7 +35362,7 @@
         <v>326</v>
       </c>
       <c r="F803" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G803" s="5" t="s">
         <v>854</v>
@@ -35430,7 +35427,7 @@
         <v>290</v>
       </c>
       <c r="C805" s="3" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D805" s="3" t="s">
         <v>325</v>
@@ -35439,10 +35436,10 @@
         <v>326</v>
       </c>
       <c r="F805" s="3" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G805" s="5" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H805" s="3" t="s">
         <v>16</v>
@@ -35467,7 +35464,7 @@
         <v>292</v>
       </c>
       <c r="C806" s="3" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D806" s="3" t="s">
         <v>325</v>
@@ -35476,10 +35473,10 @@
         <v>326</v>
       </c>
       <c r="F806" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="G806" s="5" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H806" s="3" t="s">
         <v>16</v>
@@ -35504,7 +35501,7 @@
         <v>247</v>
       </c>
       <c r="C807" s="3" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D807" s="3" t="s">
         <v>325</v>
@@ -35513,13 +35510,13 @@
         <v>326</v>
       </c>
       <c r="F807" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G807" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="G807" s="5" t="s">
+      <c r="H807" s="3" t="s">
         <v>1753</v>
-      </c>
-      <c r="H807" s="3" t="s">
-        <v>1754</v>
       </c>
       <c r="I807" s="3" t="s">
         <v>16</v>
@@ -35541,7 +35538,7 @@
         <v>247</v>
       </c>
       <c r="C808" s="3" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="D808" s="3" t="s">
         <v>325</v>
@@ -35550,13 +35547,13 @@
         <v>342</v>
       </c>
       <c r="F808" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G808" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H808" s="3" t="s">
         <v>1756</v>
-      </c>
-      <c r="G808" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H808" s="3" t="s">
-        <v>1757</v>
       </c>
       <c r="I808" s="3" t="s">
         <v>16</v>
@@ -35578,7 +35575,7 @@
         <v>247</v>
       </c>
       <c r="C809" s="3" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="D809" s="3" t="s">
         <v>325</v>
@@ -35587,10 +35584,10 @@
         <v>326</v>
       </c>
       <c r="F809" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G809" s="5" t="s">
         <v>1759</v>
-      </c>
-      <c r="G809" s="5" t="s">
-        <v>1760</v>
       </c>
       <c r="H809" s="3" t="s">
         <v>16</v>
@@ -35615,7 +35612,7 @@
         <v>247</v>
       </c>
       <c r="C810" s="3" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D810" s="3" t="s">
         <v>325</v>
@@ -35624,13 +35621,13 @@
         <v>342</v>
       </c>
       <c r="F810" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G810" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H810" s="3" t="s">
         <v>1762</v>
-      </c>
-      <c r="G810" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H810" s="3" t="s">
-        <v>1763</v>
       </c>
       <c r="I810" s="3" t="s">
         <v>16</v>
@@ -35652,7 +35649,7 @@
         <v>247</v>
       </c>
       <c r="C811" s="3" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="D811" s="3" t="s">
         <v>325</v>
@@ -35661,10 +35658,10 @@
         <v>326</v>
       </c>
       <c r="F811" s="3" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G811" s="5" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="H811" s="3" t="s">
         <v>16</v>
@@ -35726,7 +35723,7 @@
         <v>250</v>
       </c>
       <c r="C813" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D813" s="3" t="s">
         <v>325</v>
@@ -35735,7 +35732,7 @@
         <v>342</v>
       </c>
       <c r="F813" s="3" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G813" s="3" t="s">
         <v>16</v>
@@ -35763,7 +35760,7 @@
         <v>250</v>
       </c>
       <c r="C814" s="3" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D814" s="3" t="s">
         <v>369</v>
@@ -35772,7 +35769,7 @@
         <v>326</v>
       </c>
       <c r="F814" s="3" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="G814" s="3" t="s">
         <v>16</v>
@@ -35809,7 +35806,7 @@
         <v>717</v>
       </c>
       <c r="F815" s="3" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="G815" s="3" t="s">
         <v>16</v>
@@ -35837,7 +35834,7 @@
         <v>250</v>
       </c>
       <c r="C816" s="3" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D816" s="3" t="s">
         <v>369</v>
@@ -35846,7 +35843,7 @@
         <v>712</v>
       </c>
       <c r="F816" s="3" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="G816" s="3" t="s">
         <v>16</v>
@@ -35883,7 +35880,7 @@
         <v>342</v>
       </c>
       <c r="F817" s="3" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G817" s="3" t="s">
         <v>16</v>
@@ -35948,28 +35945,28 @@
         <v>298</v>
       </c>
       <c r="C819" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D819" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E819" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F819" s="3" t="s">
         <v>1771</v>
       </c>
-      <c r="F819" s="3" t="s">
+      <c r="G819" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H819" s="3" t="s">
         <v>1772</v>
       </c>
-      <c r="G819" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H819" s="3" t="s">
+      <c r="I819" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J819" s="3" t="s">
         <v>1773</v>
-      </c>
-      <c r="I819" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J819" s="3" t="s">
-        <v>1774</v>
       </c>
       <c r="K819" s="3"/>
       <c r="L819" s="3"/>
@@ -35985,28 +35982,28 @@
         <v>298</v>
       </c>
       <c r="C820" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F820" s="3" t="s">
         <v>1775</v>
       </c>
-      <c r="D820" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E820" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F820" s="3" t="s">
+      <c r="G820" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H820" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="G820" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H820" s="3" t="s">
+      <c r="I820" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J820" s="3" t="s">
         <v>1777</v>
-      </c>
-      <c r="I820" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J820" s="3" t="s">
-        <v>1778</v>
       </c>
       <c r="K820" s="3"/>
       <c r="L820" s="3"/>
@@ -36022,16 +36019,16 @@
         <v>298</v>
       </c>
       <c r="C821" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F821" s="3" t="s">
         <v>1779</v>
-      </c>
-      <c r="D821" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E821" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F821" s="3" t="s">
-        <v>1780</v>
       </c>
       <c r="G821" s="3" t="s">
         <v>16</v>
@@ -36059,28 +36056,28 @@
         <v>298</v>
       </c>
       <c r="C822" s="3" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F822" s="3" t="s">
         <v>1781</v>
       </c>
-      <c r="D822" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E822" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F822" s="3" t="s">
+      <c r="G822" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H822" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="G822" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H822" s="3" t="s">
+      <c r="I822" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J822" s="3" t="s">
         <v>1783</v>
-      </c>
-      <c r="I822" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J822" s="3" t="s">
-        <v>1784</v>
       </c>
       <c r="K822" s="3"/>
       <c r="L822" s="3"/>
@@ -36096,28 +36093,28 @@
         <v>298</v>
       </c>
       <c r="C823" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F823" s="3" t="s">
         <v>1785</v>
       </c>
-      <c r="D823" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E823" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F823" s="3" t="s">
+      <c r="G823" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H823" s="3" t="s">
         <v>1786</v>
       </c>
-      <c r="G823" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H823" s="3" t="s">
+      <c r="I823" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J823" s="3" t="s">
         <v>1787</v>
-      </c>
-      <c r="I823" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J823" s="3" t="s">
-        <v>1788</v>
       </c>
       <c r="K823" s="3"/>
       <c r="L823" s="3"/>
@@ -36133,28 +36130,28 @@
         <v>298</v>
       </c>
       <c r="C824" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F824" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="D824" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E824" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F824" s="3" t="s">
+      <c r="G824" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H824" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="G824" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H824" s="3" t="s">
+      <c r="I824" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J824" s="3" t="s">
         <v>1791</v>
-      </c>
-      <c r="I824" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J824" s="3" t="s">
-        <v>1792</v>
       </c>
       <c r="K824" s="3"/>
       <c r="L824" s="3"/>
@@ -36170,16 +36167,16 @@
         <v>298</v>
       </c>
       <c r="C825" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F825" s="3" t="s">
         <v>1793</v>
-      </c>
-      <c r="D825" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E825" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F825" s="3" t="s">
-        <v>1794</v>
       </c>
       <c r="G825" s="3" t="s">
         <v>16</v>
@@ -36207,16 +36204,16 @@
         <v>298</v>
       </c>
       <c r="C826" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F826" s="3" t="s">
         <v>1795</v>
-      </c>
-      <c r="D826" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E826" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F826" s="3" t="s">
-        <v>1796</v>
       </c>
       <c r="G826" s="3" t="s">
         <v>16</v>
@@ -36244,16 +36241,16 @@
         <v>298</v>
       </c>
       <c r="C827" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F827" s="3" t="s">
         <v>1797</v>
-      </c>
-      <c r="D827" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E827" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F827" s="3" t="s">
-        <v>1798</v>
       </c>
       <c r="G827" s="3" t="s">
         <v>16</v>
@@ -36281,16 +36278,16 @@
         <v>302</v>
       </c>
       <c r="C828" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D828" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E828" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F828" s="3" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="G828" s="3" t="s">
         <v>16</v>
@@ -36318,16 +36315,16 @@
         <v>302</v>
       </c>
       <c r="C829" s="3" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F829" s="3" t="s">
         <v>1800</v>
-      </c>
-      <c r="D829" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E829" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F829" s="3" t="s">
-        <v>1801</v>
       </c>
       <c r="G829" s="3" t="s">
         <v>16</v>
@@ -36355,16 +36352,16 @@
         <v>304</v>
       </c>
       <c r="C830" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D830" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E830" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F830" s="3" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G830" s="3" t="s">
         <v>16</v>
@@ -36392,16 +36389,16 @@
         <v>304</v>
       </c>
       <c r="C831" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D831" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F831" s="3" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G831" s="3" t="s">
         <v>16</v>
@@ -36429,16 +36426,16 @@
         <v>306</v>
       </c>
       <c r="C832" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D832" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E832" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F832" s="3" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G832" s="3" t="s">
         <v>16</v>
@@ -36466,16 +36463,16 @@
         <v>306</v>
       </c>
       <c r="C833" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D833" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E833" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F833" s="3" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G833" s="3" t="s">
         <v>16</v>
@@ -36503,28 +36500,28 @@
         <v>308</v>
       </c>
       <c r="C834" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D834" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E834" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F834" s="3" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G834" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H834" s="3" t="s">
         <v>1806</v>
       </c>
-      <c r="G834" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H834" s="3" t="s">
+      <c r="I834" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J834" s="3" t="s">
         <v>1807</v>
-      </c>
-      <c r="I834" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J834" s="3" t="s">
-        <v>1808</v>
       </c>
       <c r="K834" s="3"/>
       <c r="L834" s="3"/>
@@ -36540,28 +36537,28 @@
         <v>308</v>
       </c>
       <c r="C835" s="3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F835" s="3" t="s">
         <v>1809</v>
       </c>
-      <c r="D835" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E835" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F835" s="3" t="s">
+      <c r="G835" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H835" s="3" t="s">
         <v>1810</v>
       </c>
-      <c r="G835" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H835" s="3" t="s">
+      <c r="I835" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J835" s="3" t="s">
         <v>1811</v>
-      </c>
-      <c r="I835" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J835" s="3" t="s">
-        <v>1812</v>
       </c>
       <c r="K835" s="3"/>
       <c r="L835" s="3"/>
@@ -36577,28 +36574,28 @@
         <v>308</v>
       </c>
       <c r="C836" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F836" s="3" t="s">
         <v>1813</v>
       </c>
-      <c r="D836" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E836" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F836" s="3" t="s">
+      <c r="G836" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H836" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="G836" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H836" s="3" t="s">
+      <c r="I836" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J836" s="3" t="s">
         <v>1815</v>
-      </c>
-      <c r="I836" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J836" s="3" t="s">
-        <v>1816</v>
       </c>
       <c r="K836" s="3"/>
       <c r="L836" s="3"/>
@@ -36614,28 +36611,28 @@
         <v>308</v>
       </c>
       <c r="C837" s="3" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F837" s="3" t="s">
         <v>1817</v>
       </c>
-      <c r="D837" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E837" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F837" s="3" t="s">
+      <c r="G837" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H837" s="3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="I837" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J837" s="3" t="s">
         <v>1818</v>
-      </c>
-      <c r="G837" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H837" s="3" t="s">
-        <v>1815</v>
-      </c>
-      <c r="I837" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J837" s="3" t="s">
-        <v>1819</v>
       </c>
       <c r="K837" s="3"/>
       <c r="L837" s="3"/>
@@ -36651,16 +36648,16 @@
         <v>308</v>
       </c>
       <c r="C838" s="3" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F838" s="3" t="s">
         <v>1820</v>
-      </c>
-      <c r="D838" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E838" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F838" s="3" t="s">
-        <v>1821</v>
       </c>
       <c r="G838" s="3" t="s">
         <v>16</v>
@@ -36688,16 +36685,16 @@
         <v>308</v>
       </c>
       <c r="C839" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F839" s="3" t="s">
         <v>1822</v>
-      </c>
-      <c r="D839" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E839" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F839" s="3" t="s">
-        <v>1823</v>
       </c>
       <c r="G839" s="3" t="s">
         <v>16</v>
@@ -36725,22 +36722,22 @@
         <v>308</v>
       </c>
       <c r="C840" s="3" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="D840" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E840" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F840" s="3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="G840" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H840" s="3" t="s">
         <v>1824</v>
-      </c>
-      <c r="G840" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H840" s="3" t="s">
-        <v>1825</v>
       </c>
       <c r="I840" s="3" t="s">
         <v>16</v>
@@ -36762,28 +36759,28 @@
         <v>308</v>
       </c>
       <c r="C841" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="D841" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E841" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F841" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="G841" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H841" s="3" t="s">
         <v>1826</v>
       </c>
-      <c r="G841" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H841" s="3" t="s">
+      <c r="I841" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J841" s="3" t="s">
         <v>1827</v>
-      </c>
-      <c r="I841" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J841" s="3" t="s">
-        <v>1828</v>
       </c>
       <c r="K841" s="3"/>
       <c r="L841" s="3"/>
@@ -36799,7 +36796,7 @@
         <v>308</v>
       </c>
       <c r="C842" s="3" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D842" s="3" t="s">
         <v>325</v>
@@ -36808,13 +36805,13 @@
         <v>326</v>
       </c>
       <c r="F842" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G842" s="3" t="s">
         <v>1830</v>
       </c>
-      <c r="G842" s="3" t="s">
+      <c r="H842" s="3" t="s">
         <v>1831</v>
-      </c>
-      <c r="H842" s="3" t="s">
-        <v>1832</v>
       </c>
       <c r="I842" s="3" t="s">
         <v>16</v>
@@ -36836,16 +36833,16 @@
         <v>312</v>
       </c>
       <c r="C843" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D843" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E843" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F843" s="3" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G843" s="3" t="s">
         <v>16</v>
@@ -36873,16 +36870,16 @@
         <v>312</v>
       </c>
       <c r="C844" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D844" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E844" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F844" s="3" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="G844" s="3" t="s">
         <v>16</v>
@@ -36910,16 +36907,16 @@
         <v>314</v>
       </c>
       <c r="C845" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D845" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E845" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F845" s="3" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="G845" s="3" t="s">
         <v>16</v>
@@ -36947,7 +36944,7 @@
         <v>314</v>
       </c>
       <c r="C846" s="3" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="D846" s="3" t="s">
         <v>325</v>
@@ -36956,10 +36953,10 @@
         <v>326</v>
       </c>
       <c r="F846" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G846" s="5" t="s">
         <v>1837</v>
-      </c>
-      <c r="G846" s="5" t="s">
-        <v>1838</v>
       </c>
       <c r="H846" s="3" t="s">
         <v>16</v>
@@ -36984,7 +36981,7 @@
         <v>314</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="D847" s="3" t="s">
         <v>325</v>
@@ -36993,7 +36990,7 @@
         <v>326</v>
       </c>
       <c r="F847" s="3" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="G847" s="3" t="s">
         <v>16</v>
@@ -37021,16 +37018,16 @@
         <v>314</v>
       </c>
       <c r="C848" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F848" s="3" t="s">
         <v>1841</v>
-      </c>
-      <c r="D848" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E848" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F848" s="3" t="s">
-        <v>1842</v>
       </c>
       <c r="G848" s="3" t="s">
         <v>16</v>
@@ -37058,16 +37055,16 @@
         <v>316</v>
       </c>
       <c r="C849" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D849" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E849" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F849" s="3" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="G849" s="3" t="s">
         <v>16</v>
@@ -37095,7 +37092,7 @@
         <v>316</v>
       </c>
       <c r="C850" s="3" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D850" s="3" t="s">
         <v>325</v>
@@ -37104,10 +37101,10 @@
         <v>326</v>
       </c>
       <c r="F850" s="3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G850" s="5" t="s">
         <v>1845</v>
-      </c>
-      <c r="G850" s="5" t="s">
-        <v>1846</v>
       </c>
       <c r="H850" s="3" t="s">
         <v>16</v>
@@ -37132,16 +37129,16 @@
         <v>318</v>
       </c>
       <c r="C851" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D851" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E851" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F851" s="3" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="G851" s="3" t="s">
         <v>16</v>
@@ -37169,16 +37166,16 @@
         <v>318</v>
       </c>
       <c r="C852" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D852" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E852" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F852" s="3" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G852" s="3" t="s">
         <v>16</v>
@@ -37206,16 +37203,16 @@
         <v>320</v>
       </c>
       <c r="C853" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D853" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E853" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F853" s="3" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G853" s="3" t="s">
         <v>16</v>
@@ -37243,16 +37240,16 @@
         <v>320</v>
       </c>
       <c r="C854" s="3" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="D854" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E854" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F854" s="3" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="G854" s="3" t="s">
         <v>16</v>
@@ -37280,16 +37277,16 @@
         <v>320</v>
       </c>
       <c r="C855" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F855" s="3" t="s">
         <v>1851</v>
-      </c>
-      <c r="D855" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E855" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F855" s="3" t="s">
-        <v>1852</v>
       </c>
       <c r="G855" s="3" t="s">
         <v>16</v>
@@ -37317,16 +37314,16 @@
         <v>320</v>
       </c>
       <c r="C856" s="3" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E856" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F856" s="3" t="s">
         <v>1853</v>
-      </c>
-      <c r="D856" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E856" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F856" s="3" t="s">
-        <v>1854</v>
       </c>
       <c r="G856" s="3" t="s">
         <v>16</v>
@@ -37354,16 +37351,16 @@
         <v>320</v>
       </c>
       <c r="C857" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F857" s="3" t="s">
         <v>1855</v>
-      </c>
-      <c r="D857" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E857" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F857" s="3" t="s">
-        <v>1856</v>
       </c>
       <c r="G857" s="3" t="s">
         <v>16</v>
@@ -37391,16 +37388,16 @@
         <v>320</v>
       </c>
       <c r="C858" s="3" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E858" s="3" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F858" s="3" t="s">
         <v>1857</v>
-      </c>
-      <c r="D858" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E858" s="3" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F858" s="3" t="s">
-        <v>1858</v>
       </c>
       <c r="G858" s="3" t="s">
         <v>16</v>
@@ -37428,16 +37425,16 @@
         <v>322</v>
       </c>
       <c r="C859" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D859" s="3" t="s">
         <v>970</v>
       </c>
       <c r="E859" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F859" s="3" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="G859" s="3" t="s">
         <v>16</v>
@@ -37465,16 +37462,16 @@
         <v>322</v>
       </c>
       <c r="C860" s="3" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D860" s="3" t="s">
         <v>325</v>
       </c>
       <c r="E860" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F860" s="3" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="G860" s="3" t="s">
         <v>16</v>
@@ -37496,9 +37493,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O860" xr:uid="{1312873C-04CD-43E2-8EB3-01CF1845F5CA}">
-    <filterColumn colId="0">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Offre opérationnelle"/>
+        <filter val="INS"/>
+        <filter val="InscriptionOrdre"/>
       </filters>
     </filterColumn>
   </autoFilter>
